--- a/data/price/TSLA.xlsx
+++ b/data/price/TSLA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235598D-B8DE-1342-8387-6A5E2FEDE769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4B1E6-0C25-8942-8660-B6492A23C5A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23660" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,12 +49,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Upper bound</t>
-  </si>
-  <si>
-    <t>Lower bound</t>
-  </si>
-  <si>
     <t>03-05-19</t>
   </si>
   <si>
@@ -1814,6 +1808,12 @@
   </si>
   <si>
     <t>03-01-17</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1890,8 @@
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{223DA2CE-2DDD-4E6C-ACEF-B92CFC21616D}" uniqueName="3" name="High" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{617E7A5B-38A9-42B5-B812-E47C987D7823}" uniqueName="4" name="Low" queryTableFieldId="4"/>
-    <tableColumn id="8" xr3:uid="{146F48DB-4953-4859-B27C-F6F353F45BFD}" uniqueName="8" name="Upper bound" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{F91A7205-F821-4B2A-86DF-D807F8601816}" uniqueName="9" name="Lower bound" queryTableFieldId="9"/>
+    <tableColumn id="8" xr3:uid="{146F48DB-4953-4859-B27C-F6F353F45BFD}" uniqueName="8" name="Upper Bound" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{F91A7205-F821-4B2A-86DF-D807F8601816}" uniqueName="9" name="Lower Bound" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:E588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2182,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>590</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>591</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>182.61750375</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>178.29000074999999</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>173.625</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>177.75</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>174.1274985</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
         <v>173.34750375000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>184.55250525</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>193.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>191.8125</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <v>196.86000824999999</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,7 +2375,7 @@
         <v>202.3125</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>201.40500674999998</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
         <v>198.54000075000002</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>193.97250374999999</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
         <v>200.12249025</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2460,7 +2460,7 @@
         <v>199.20000450000001</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2477,7 +2477,7 @@
         <v>204.66751125000002</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>202.20748874999998</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2511,7 +2511,7 @@
         <v>202.83000149999998</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
         <v>199.58248874999998</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
         <v>195.442497</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2562,7 +2562,7 @@
         <v>215.37750975</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>212.91000374999999</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
         <v>210.95999924999998</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2613,7 +2613,7 @@
         <v>205.875</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>206.32500450000001</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2647,7 +2647,7 @@
         <v>201.13499475000003</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>198.32249475000003</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>190.84500524999999</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2698,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>201.33750900000001</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>199.72499099999999</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,7 +2749,7 @@
         <v>197.59499325000002</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>200.47499099999999</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
         <v>205.79999549999999</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2800,7 +2800,7 @@
         <v>216.21750674999998</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>212.02500900000001</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2834,7 +2834,7 @@
         <v>210.79499850000002</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2851,7 +2851,7 @@
         <v>210.375</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
         <v>206.91751125000002</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2885,7 +2885,7 @@
         <v>205.6875</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2902,7 +2902,7 @@
         <v>205.79251125000002</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>202.57500450000001</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
         <v>212.08499924999998</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>218.92499549999999</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2970,7 +2970,7 @@
         <v>233.10749850000002</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>225.41249099999999</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>216.57749175000001</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
         <v>222.75</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>219.07500450000001</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,7 +3055,7 @@
         <v>217.875</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>224.25</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>229.10250075000002</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
         <v>227.92499549999999</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3123,7 +3123,7 @@
         <v>225.75</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
         <v>229.17750524999997</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3157,7 +3157,7 @@
         <v>232.21499625000001</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>232.875</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,7 +3191,7 @@
         <v>223.875</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3208,7 +3208,7 @@
         <v>227.25</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>236.71499625000001</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,7 +3242,7 @@
         <v>234.1875</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3259,7 +3259,7 @@
         <v>226.41000374999999</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
         <v>227.625</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
         <v>220.5</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3310,7 +3310,7 @@
         <v>223.86749249999997</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3327,7 +3327,7 @@
         <v>218.84999099999999</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
         <v>215.8125</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3361,7 +3361,7 @@
         <v>217.16249099999999</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3378,7 +3378,7 @@
         <v>209.45999924999998</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3395,7 +3395,7 @@
         <v>211.26750149999998</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>221.625</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>224.79750824999999</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3446,7 +3446,7 @@
         <v>258.11249550000002</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3463,7 +3463,7 @@
         <v>257.625</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3480,7 +3480,7 @@
         <v>250.875</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3497,7 +3497,7 @@
         <v>250.5</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3514,7 +3514,7 @@
         <v>254.07749175000001</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3531,7 +3531,7 @@
         <v>248.84250674999998</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>248.60250075000002</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3565,7 +3565,7 @@
         <v>245.26499175000001</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>238.3125</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>227.04750824999999</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3616,7 +3616,7 @@
         <v>223.03500374999999</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>224.09999099999999</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3650,7 +3650,7 @@
         <v>243.94500750000003</v>
       </c>
       <c r="E87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>238.807503</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>226.125</v>
       </c>
       <c r="E89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3701,7 +3701,7 @@
         <v>220.567497</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>221.40000900000001</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>234.33000149999998</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>233.90249625000001</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3769,7 +3769,7 @@
         <v>247.30499249999997</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>250.26750149999998</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3803,7 +3803,7 @@
         <v>257.91000374999999</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
         <v>273.24749025</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3837,7 +3837,7 @@
         <v>275.0625</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3854,7 +3854,7 @@
         <v>273.870003</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>270.17250824999996</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>264.83999625000001</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>268.23749550000002</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>263.07000750000003</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
         <v>264</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3956,7 +3956,7 @@
         <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3973,7 +3973,7 @@
         <v>253.69500750000003</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
         <v>254.66249099999999</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>256.65749325000002</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4024,7 +4024,7 @@
         <v>251.625</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>243.75</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>244.16249099999999</v>
       </c>
       <c r="E111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4075,7 +4075,7 @@
         <v>253.04999549999999</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4092,7 +4092,7 @@
         <v>250.16249099999999</v>
       </c>
       <c r="E113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4109,7 +4109,7 @@
         <v>264.66000374999999</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>258.83999625000001</v>
       </c>
       <c r="E115" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>254.28000674999998</v>
       </c>
       <c r="E116" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4160,7 +4160,7 @@
         <v>252.86249549999999</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>249.15000900000001</v>
       </c>
       <c r="E118" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
         <v>247.754997</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4211,7 +4211,7 @@
         <v>258.92250824999996</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>261.33000149999998</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
         <v>255.59999099999999</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>252.067497</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>247.60501125000002</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
         <v>255.682503</v>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>251.04750824999999</v>
       </c>
       <c r="E126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
         <v>246.82500450000001</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
         <v>241.69500750000003</v>
       </c>
       <c r="E128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4364,7 +4364,7 @@
         <v>244.875</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>229.98749549999999</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>225.75750750000003</v>
       </c>
       <c r="E131" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>214.29750824999999</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>196.57500450000001</v>
       </c>
       <c r="E133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>189.442497</v>
       </c>
       <c r="E134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>190.125</v>
       </c>
       <c r="E135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4483,7 +4483,7 @@
         <v>197.25</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>199.34999099999999</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>196.67999249999997</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>190.90499475000001</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>189.00749625</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>186.77249925000001</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>185.82750300000001</v>
       </c>
       <c r="E142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
         <v>189.97500224999999</v>
       </c>
       <c r="E143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>186.75</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>195</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
         <v>208.25250975</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>218.67750524999997</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>224.36249549999999</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4704,7 +4704,7 @@
         <v>225.78749099999999</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>195.41999850000002</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>230.182503</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>225.83248874999998</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>222.375</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>220.18499025</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>221.52749625000001</v>
       </c>
       <c r="E155" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>219.99749025</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4840,7 +4840,7 @@
         <v>210.375</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>206.625</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>216.09750374999999</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4891,7 +4891,7 @@
         <v>214.88999175000001</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>213.88499475000003</v>
       </c>
       <c r="E161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>208.98749549999999</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>205.16249099999999</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>203.25</v>
       </c>
       <c r="E164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4976,7 @@
         <v>189.1875</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>209.16000374999999</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
         <v>207.88499475000003</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,7 +5027,7 @@
         <v>216</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5044,7 +5044,7 @@
         <v>223.95000450000001</v>
       </c>
       <c r="E169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5061,7 +5061,7 @@
         <v>223.29000075000002</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>227.76750149999998</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>233.39250149999998</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,7 +5112,7 @@
         <v>231.60749850000002</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>239.54999549999999</v>
       </c>
       <c r="E174" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5146,7 +5146,7 @@
         <v>238.57500450000001</v>
       </c>
       <c r="E175" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
         <v>236.00250975</v>
       </c>
       <c r="E176" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
         <v>231.75</v>
       </c>
       <c r="E177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -5197,7 +5197,7 @@
         <v>216.15000900000001</v>
       </c>
       <c r="E178" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>227.64749924999998</v>
       </c>
       <c r="E179" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>250.36500524999997</v>
       </c>
       <c r="E180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -5248,7 +5248,7 @@
         <v>249.10501125000002</v>
       </c>
       <c r="E181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -5265,7 +5265,7 @@
         <v>260.32500449999998</v>
       </c>
       <c r="E182" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -5282,7 +5282,7 @@
         <v>261.76499175000004</v>
       </c>
       <c r="E183" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
         <v>259.5</v>
       </c>
       <c r="E184" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>259.29750824999996</v>
       </c>
       <c r="E185" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5333,7 +5333,7 @@
         <v>275.33999625000001</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
         <v>254.36249549999999</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>256.36500524999997</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -5384,7 +5384,7 @@
         <v>256.89749925000001</v>
       </c>
       <c r="E189" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>242.370003</v>
       </c>
       <c r="E190" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
         <v>219.75</v>
       </c>
       <c r="E191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -5435,7 +5435,7 @@
         <v>216.80250524999997</v>
       </c>
       <c r="E192" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>214.59750374999999</v>
       </c>
       <c r="E193" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5469,7 +5469,7 @@
         <v>221.504997</v>
       </c>
       <c r="E194" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
         <v>227.73001125000002</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>220.875</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5520,7 +5520,7 @@
         <v>219.41249099999999</v>
       </c>
       <c r="E197" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>219.64498874999998</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5554,7 +5554,7 @@
         <v>233.78249325000002</v>
       </c>
       <c r="E199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,7 +5571,7 @@
         <v>235.50750750000003</v>
       </c>
       <c r="E200" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>237.1875</v>
       </c>
       <c r="E201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5605,7 +5605,7 @@
         <v>231.375</v>
       </c>
       <c r="E202" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5622,7 +5622,7 @@
         <v>229.6875</v>
       </c>
       <c r="E203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>231.9375</v>
       </c>
       <c r="E204" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5656,7 +5656,7 @@
         <v>234.57749175000001</v>
       </c>
       <c r="E205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5673,7 +5673,7 @@
         <v>236.30250524999997</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5690,7 +5690,7 @@
         <v>239.40000900000001</v>
       </c>
       <c r="E207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5707,7 +5707,7 @@
         <v>231</v>
       </c>
       <c r="E208" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
         <v>226.5</v>
       </c>
       <c r="E209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5741,7 +5741,7 @@
         <v>222.16500075000002</v>
       </c>
       <c r="E210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>232.26750149999998</v>
       </c>
       <c r="E211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>247.38750450000001</v>
       </c>
       <c r="E212" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5792,7 +5792,7 @@
         <v>256.807503</v>
       </c>
       <c r="E213" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>259.58248874999998</v>
       </c>
       <c r="E214" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -5826,7 +5826,7 @@
         <v>254.625</v>
       </c>
       <c r="E215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -5843,7 +5843,7 @@
         <v>244.34999099999999</v>
       </c>
       <c r="E216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5860,7 +5860,7 @@
         <v>245.625</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
         <v>249</v>
       </c>
       <c r="E218" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5894,7 +5894,7 @@
         <v>259.70249175000004</v>
       </c>
       <c r="E219" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>264</v>
       </c>
       <c r="E220" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
         <v>259.6875</v>
       </c>
       <c r="E221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>265.875</v>
       </c>
       <c r="E222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -5962,7 +5962,7 @@
         <v>263.4375</v>
       </c>
       <c r="E223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5979,7 +5979,7 @@
         <v>259.95000449999998</v>
       </c>
       <c r="E224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5996,7 +5996,7 @@
         <v>254.84999099999999</v>
       </c>
       <c r="E225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -6013,7 +6013,7 @@
         <v>253.5</v>
       </c>
       <c r="E226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>241.875</v>
       </c>
       <c r="E227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>237.86249549999999</v>
       </c>
       <c r="E228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -6064,7 +6064,7 @@
         <v>235.18499025</v>
       </c>
       <c r="E229" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
         <v>223.11000824999999</v>
       </c>
       <c r="E230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -6098,7 +6098,7 @@
         <v>215.05499249999997</v>
       </c>
       <c r="E231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -6115,7 +6115,7 @@
         <v>220.16249099999999</v>
       </c>
       <c r="E232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>212.879997</v>
       </c>
       <c r="E233" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
         <v>212.19749475000003</v>
       </c>
       <c r="E234" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -6166,7 +6166,7 @@
         <v>211.20000450000001</v>
       </c>
       <c r="E235" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>207.11249549999999</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
         <v>206.70748874999998</v>
       </c>
       <c r="E237" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>206.16751125000002</v>
       </c>
       <c r="E238" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -6234,7 +6234,7 @@
         <v>205.5</v>
       </c>
       <c r="E239" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -6251,7 +6251,7 @@
         <v>205.06500975</v>
       </c>
       <c r="E240" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
         <v>210.97499099999999</v>
       </c>
       <c r="E241" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -6285,7 +6285,7 @@
         <v>205.5</v>
       </c>
       <c r="E242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>212.97750075000002</v>
       </c>
       <c r="E243" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>211.16999850000002</v>
       </c>
       <c r="E244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -6336,7 +6336,7 @@
         <v>210.375</v>
       </c>
       <c r="E245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
         <v>218.71499625000001</v>
       </c>
       <c r="E246" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6370,7 +6370,7 @@
         <v>224.30999025</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6387,7 +6387,7 @@
         <v>228.08248874999998</v>
       </c>
       <c r="E248" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>225.03749099999999</v>
       </c>
       <c r="E249" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -6421,7 +6421,7 @@
         <v>224.25</v>
       </c>
       <c r="E250" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>221.37750975</v>
       </c>
       <c r="E251" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>209.63999175000001</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -6472,7 +6472,7 @@
         <v>206.42250824999999</v>
       </c>
       <c r="E253" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
         <v>223.33499924999998</v>
       </c>
       <c r="E254" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -6506,7 +6506,7 @@
         <v>219.91500075000002</v>
       </c>
       <c r="E255" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6523,7 +6523,7 @@
         <v>219.375</v>
       </c>
       <c r="E256" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
         <v>212.87249025</v>
       </c>
       <c r="E257" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6557,7 +6557,7 @@
         <v>207.375</v>
       </c>
       <c r="E258" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -6574,7 +6574,7 @@
         <v>207.9375</v>
       </c>
       <c r="E259" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>208.84499325000002</v>
       </c>
       <c r="E260" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -6608,7 +6608,7 @@
         <v>211.74749025</v>
       </c>
       <c r="E261" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>217.3125</v>
       </c>
       <c r="E262" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -6642,7 +6642,7 @@
         <v>216.41249099999999</v>
       </c>
       <c r="E263" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -6659,7 +6659,7 @@
         <v>216.120003</v>
       </c>
       <c r="E264" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
         <v>211.88250750000003</v>
       </c>
       <c r="E265" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6693,7 +6693,7 @@
         <v>216.75750750000003</v>
       </c>
       <c r="E266" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
         <v>221.98500824999999</v>
       </c>
       <c r="E267" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>220.25999475000003</v>
       </c>
       <c r="E268" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
         <v>224.745003</v>
       </c>
       <c r="E269" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>220.25999475000003</v>
       </c>
       <c r="E270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
         <v>216.90749325000002</v>
       </c>
       <c r="E271" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -6795,7 +6795,7 @@
         <v>221.625</v>
       </c>
       <c r="E272" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
         <v>216.15000900000001</v>
       </c>
       <c r="E273" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -6829,7 +6829,7 @@
         <v>189</v>
       </c>
       <c r="E274" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
         <v>190.86750375</v>
       </c>
       <c r="E275" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>183.442497</v>
       </c>
       <c r="E276" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -6880,7 +6880,7 @@
         <v>186.15750524999999</v>
       </c>
       <c r="E277" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -6897,7 +6897,7 @@
         <v>189.07500450000001</v>
       </c>
       <c r="E278" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -6914,7 +6914,7 @@
         <v>207.88499475000003</v>
       </c>
       <c r="E279" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -6931,7 +6931,7 @@
         <v>218.51998874999998</v>
       </c>
       <c r="E280" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6948,7 +6948,7 @@
         <v>225.33750900000001</v>
       </c>
       <c r="E281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -6965,7 +6965,7 @@
         <v>231.13499475000003</v>
       </c>
       <c r="E282" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
         <v>232.64250149999998</v>
       </c>
       <c r="E283" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>231.57000750000003</v>
       </c>
       <c r="E284" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
         <v>232.25250975</v>
       </c>
       <c r="E285" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -7033,7 +7033,7 @@
         <v>239.30250524999997</v>
       </c>
       <c r="E286" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -7050,7 +7050,7 @@
         <v>240.82500450000001</v>
       </c>
       <c r="E287" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -7067,7 +7067,7 @@
         <v>242.94749475000003</v>
       </c>
       <c r="E288" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
         <v>244.875</v>
       </c>
       <c r="E289" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -7101,7 +7101,7 @@
         <v>244.875</v>
       </c>
       <c r="E290" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>241.77749625000001</v>
       </c>
       <c r="E291" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>244.70249175000001</v>
       </c>
       <c r="E292" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -7152,7 +7152,7 @@
         <v>241.30499249999997</v>
       </c>
       <c r="E293" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -7169,7 +7169,7 @@
         <v>245.27249924999998</v>
       </c>
       <c r="E294" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -7186,7 +7186,7 @@
         <v>246.96750674999998</v>
       </c>
       <c r="E295" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -7203,7 +7203,7 @@
         <v>242.22750075000002</v>
       </c>
       <c r="E296" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -7220,7 +7220,7 @@
         <v>247.55250524999997</v>
       </c>
       <c r="E297" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -7237,7 +7237,7 @@
         <v>256.66500074999999</v>
       </c>
       <c r="E298" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>262.50750750000003</v>
       </c>
       <c r="E299" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>264.26998874999998</v>
       </c>
       <c r="E300" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
         <v>260.32500449999998</v>
       </c>
       <c r="E301" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
         <v>251.0625</v>
       </c>
       <c r="E302" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -7322,7 +7322,7 @@
         <v>249.87750975</v>
       </c>
       <c r="E303" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -7339,7 +7339,7 @@
         <v>248.625</v>
       </c>
       <c r="E304" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
         <v>248.73001125000002</v>
       </c>
       <c r="E305" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -7373,7 +7373,7 @@
         <v>241.79999549999999</v>
       </c>
       <c r="E306" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>238.88999175000001</v>
       </c>
       <c r="E307" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>234.38250750000003</v>
       </c>
       <c r="E308" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -7424,7 +7424,7 @@
         <v>229.6875</v>
       </c>
       <c r="E309" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -7441,7 +7441,7 @@
         <v>221.07000750000003</v>
       </c>
       <c r="E310" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
         <v>235.95000450000001</v>
       </c>
       <c r="E311" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -7475,7 +7475,7 @@
         <v>251.745003</v>
       </c>
       <c r="E312" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
         <v>242.625</v>
       </c>
       <c r="E313" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
         <v>249.75</v>
       </c>
       <c r="E314" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
         <v>255.38250750000003</v>
       </c>
       <c r="E315" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>261.47250374999999</v>
       </c>
       <c r="E316" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -7560,7 +7560,7 @@
         <v>258.89250149999998</v>
       </c>
       <c r="E317" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
         <v>256.62750975</v>
       </c>
       <c r="E318" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -7594,7 +7594,7 @@
         <v>253.70999924999998</v>
       </c>
       <c r="E319" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>251.78249325000002</v>
       </c>
       <c r="E320" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
         <v>252.29999549999999</v>
       </c>
       <c r="E321" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -7645,7 +7645,7 @@
         <v>257.63999175000004</v>
       </c>
       <c r="E322" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -7662,7 +7662,7 @@
         <v>263.25</v>
       </c>
       <c r="E323" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>261.90000900000001</v>
       </c>
       <c r="E324" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -7696,7 +7696,7 @@
         <v>256.95000449999998</v>
       </c>
       <c r="E325" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -7713,7 +7713,7 @@
         <v>257.80499249999997</v>
       </c>
       <c r="E326" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -7730,7 +7730,7 @@
         <v>254.8125</v>
       </c>
       <c r="E327" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -7747,7 +7747,7 @@
         <v>251.09999099999999</v>
       </c>
       <c r="E328" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -7764,7 +7764,7 @@
         <v>250.25250975</v>
       </c>
       <c r="E329" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -7781,7 +7781,7 @@
         <v>249.94500750000003</v>
       </c>
       <c r="E330" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -7798,7 +7798,7 @@
         <v>247.5</v>
       </c>
       <c r="E331" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -7815,7 +7815,7 @@
         <v>245.54999549999999</v>
       </c>
       <c r="E332" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -7832,7 +7832,7 @@
         <v>236.625</v>
       </c>
       <c r="E333" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -7849,7 +7849,7 @@
         <v>234</v>
       </c>
       <c r="E334" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -7866,7 +7866,7 @@
         <v>229.25999475000003</v>
       </c>
       <c r="E335" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -7883,7 +7883,7 @@
         <v>236.66249099999999</v>
       </c>
       <c r="E336" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -7900,7 +7900,7 @@
         <v>233.25</v>
       </c>
       <c r="E337" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -7917,7 +7917,7 @@
         <v>232.5</v>
       </c>
       <c r="E338" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>232.15500674999998</v>
       </c>
       <c r="E339" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -7951,7 +7951,7 @@
         <v>233.0625</v>
       </c>
       <c r="E340" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -7968,7 +7968,7 @@
         <v>237.43499025</v>
       </c>
       <c r="E341" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -7985,7 +7985,7 @@
         <v>243.61500524999997</v>
       </c>
       <c r="E342" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -8002,7 +8002,7 @@
         <v>245.40749325000002</v>
       </c>
       <c r="E343" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
         <v>243.78000674999998</v>
       </c>
       <c r="E344" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>247.72499099999999</v>
       </c>
       <c r="E345" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -8053,7 +8053,7 @@
         <v>253.18499025</v>
       </c>
       <c r="E346" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
         <v>251.82000750000003</v>
       </c>
       <c r="E347" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -8087,7 +8087,7 @@
         <v>252.67499549999999</v>
       </c>
       <c r="E348" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -8104,7 +8104,7 @@
         <v>252.375</v>
       </c>
       <c r="E349" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -8121,7 +8121,7 @@
         <v>247.52249924999998</v>
       </c>
       <c r="E350" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -8138,7 +8138,7 @@
         <v>235.3125</v>
       </c>
       <c r="E351" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -8155,7 +8155,7 @@
         <v>233.44500750000003</v>
       </c>
       <c r="E352" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
         <v>233.28749099999999</v>
       </c>
       <c r="E353" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -8189,7 +8189,7 @@
         <v>225</v>
       </c>
       <c r="E354" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -8206,7 +8206,7 @@
         <v>225.75</v>
       </c>
       <c r="E355" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -8223,7 +8223,7 @@
         <v>225.45748874999998</v>
       </c>
       <c r="E356" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -8240,7 +8240,7 @@
         <v>228.78749099999999</v>
       </c>
       <c r="E357" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -8257,7 +8257,7 @@
         <v>228.40500674999998</v>
       </c>
       <c r="E358" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
         <v>225.92250824999999</v>
       </c>
       <c r="E359" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -8291,7 +8291,7 @@
         <v>235.44000975</v>
       </c>
       <c r="E360" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
         <v>232.13250750000003</v>
       </c>
       <c r="E361" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -8325,7 +8325,7 @@
         <v>233.25</v>
       </c>
       <c r="E362" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -8342,7 +8342,7 @@
         <v>233.879997</v>
       </c>
       <c r="E363" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -8359,7 +8359,7 @@
         <v>231.53249325000002</v>
       </c>
       <c r="E364" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -8376,7 +8376,7 @@
         <v>228.5625</v>
       </c>
       <c r="E365" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -8393,7 +8393,7 @@
         <v>234.86249549999999</v>
       </c>
       <c r="E366" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -8410,7 +8410,7 @@
         <v>233.47499099999999</v>
       </c>
       <c r="E367" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -8427,7 +8427,7 @@
         <v>226.125</v>
       </c>
       <c r="E368" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -8444,7 +8444,7 @@
         <v>230.17499549999999</v>
       </c>
       <c r="E369" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -8461,7 +8461,7 @@
         <v>224.33248874999998</v>
       </c>
       <c r="E370" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -8478,7 +8478,7 @@
         <v>226.38750450000001</v>
       </c>
       <c r="E371" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -8495,7 +8495,7 @@
         <v>222.22499099999999</v>
       </c>
       <c r="E372" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
         <v>225.97499099999999</v>
       </c>
       <c r="E373" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -8529,7 +8529,7 @@
         <v>225.02249924999998</v>
       </c>
       <c r="E374" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -8546,7 +8546,7 @@
         <v>224.25750750000003</v>
       </c>
       <c r="E375" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -8563,7 +8563,7 @@
         <v>221.34750374999999</v>
       </c>
       <c r="E376" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -8580,7 +8580,7 @@
         <v>219.47250374999999</v>
       </c>
       <c r="E377" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -8597,7 +8597,7 @@
         <v>240.19500750000003</v>
       </c>
       <c r="E378" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
         <v>240.13499475000003</v>
       </c>
       <c r="E379" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -8631,7 +8631,7 @@
         <v>237.9375</v>
       </c>
       <c r="E380" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -8648,7 +8648,7 @@
         <v>237.495003</v>
       </c>
       <c r="E381" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -8665,7 +8665,7 @@
         <v>242.40000900000001</v>
       </c>
       <c r="E382" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -8682,7 +8682,7 @@
         <v>242.66999850000002</v>
       </c>
       <c r="E383" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -8699,7 +8699,7 @@
         <v>252.120003</v>
       </c>
       <c r="E384" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -8716,7 +8716,7 @@
         <v>252.1875</v>
       </c>
       <c r="E385" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -8733,7 +8733,7 @@
         <v>258.254997</v>
       </c>
       <c r="E386" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
         <v>261.15000900000001</v>
       </c>
       <c r="E387" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -8767,7 +8767,7 @@
         <v>265.59750374999999</v>
       </c>
       <c r="E388" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -8784,7 +8784,7 @@
         <v>262.55250524999997</v>
       </c>
       <c r="E389" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -8801,7 +8801,7 @@
         <v>260.370003</v>
       </c>
       <c r="E390" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
         <v>265.25999475000003</v>
       </c>
       <c r="E391" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -8835,7 +8835,7 @@
         <v>264.48001125000002</v>
       </c>
       <c r="E392" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -8852,7 +8852,7 @@
         <v>263.36249550000002</v>
       </c>
       <c r="E393" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -8869,7 +8869,7 @@
         <v>259.14749925000001</v>
       </c>
       <c r="E394" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -8886,7 +8886,7 @@
         <v>257.00250975</v>
       </c>
       <c r="E395" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -8903,7 +8903,7 @@
         <v>264.1875</v>
       </c>
       <c r="E396" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -8920,7 +8920,7 @@
         <v>263.51250449999998</v>
       </c>
       <c r="E397" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
         <v>262.20000449999998</v>
       </c>
       <c r="E398" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -8954,7 +8954,7 @@
         <v>248.45999924999998</v>
       </c>
       <c r="E399" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -8971,7 +8971,7 @@
         <v>251.63250750000003</v>
       </c>
       <c r="E400" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -8988,7 +8988,7 @@
         <v>253.95000450000001</v>
       </c>
       <c r="E401" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -9005,7 +9005,7 @@
         <v>251.54999549999999</v>
       </c>
       <c r="E402" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -9022,7 +9022,7 @@
         <v>255.375</v>
       </c>
       <c r="E403" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -9039,7 +9039,7 @@
         <v>255.67499549999999</v>
       </c>
       <c r="E404" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -9056,7 +9056,7 @@
         <v>257.16000374999999</v>
       </c>
       <c r="E405" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -9073,7 +9073,7 @@
         <v>263.16000374999999</v>
       </c>
       <c r="E406" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -9090,7 +9090,7 @@
         <v>273.38250750000003</v>
       </c>
       <c r="E407" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -9107,7 +9107,7 @@
         <v>278.30250524999997</v>
       </c>
       <c r="E408" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
         <v>280.17750524999997</v>
       </c>
       <c r="E409" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -9141,7 +9141,7 @@
         <v>283.25999475000003</v>
       </c>
       <c r="E410" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -9158,7 +9158,7 @@
         <v>279.52500900000001</v>
       </c>
       <c r="E411" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -9175,7 +9175,7 @@
         <v>271.97250374999999</v>
       </c>
       <c r="E412" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -9192,7 +9192,7 @@
         <v>269.692497</v>
       </c>
       <c r="E413" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -9209,7 +9209,7 @@
         <v>270.29999550000002</v>
       </c>
       <c r="E414" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -9226,7 +9226,7 @@
         <v>262.5</v>
       </c>
       <c r="E415" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -9243,7 +9243,7 @@
         <v>256.72499099999999</v>
       </c>
       <c r="E416" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -9260,7 +9260,7 @@
         <v>257.58750900000001</v>
       </c>
       <c r="E417" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -9277,7 +9277,7 @@
         <v>256.16999850000002</v>
       </c>
       <c r="E418" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -9294,7 +9294,7 @@
         <v>259.41751125000002</v>
       </c>
       <c r="E419" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -9311,7 +9311,7 @@
         <v>265.26750149999998</v>
       </c>
       <c r="E420" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -9328,7 +9328,7 @@
         <v>264.61500524999997</v>
       </c>
       <c r="E421" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -9345,7 +9345,7 @@
         <v>260.25</v>
       </c>
       <c r="E422" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -9362,7 +9362,7 @@
         <v>254.0625</v>
       </c>
       <c r="E423" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -9379,7 +9379,7 @@
         <v>254.79000075000002</v>
       </c>
       <c r="E424" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -9396,7 +9396,7 @@
         <v>260.47499099999999</v>
       </c>
       <c r="E425" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -9413,7 +9413,7 @@
         <v>262.30499249999997</v>
       </c>
       <c r="E426" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -9430,7 +9430,7 @@
         <v>253.72499099999999</v>
       </c>
       <c r="E427" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
         <v>253.02749625000001</v>
       </c>
       <c r="E428" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>248.88750450000001</v>
       </c>
       <c r="E429" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
         <v>259.34999099999999</v>
       </c>
       <c r="E430" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
         <v>263.692497</v>
       </c>
       <c r="E431" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -9515,7 +9515,7 @@
         <v>271.88999175000004</v>
       </c>
       <c r="E432" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
         <v>269.52749625000001</v>
       </c>
       <c r="E433" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -9549,7 +9549,7 @@
         <v>271.95000449999998</v>
       </c>
       <c r="E434" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -9566,7 +9566,7 @@
         <v>265.21499625000001</v>
       </c>
       <c r="E435" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
         <v>265.995003</v>
       </c>
       <c r="E436" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -9600,7 +9600,7 @@
         <v>269.21250900000001</v>
       </c>
       <c r="E437" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -9617,7 +9617,7 @@
         <v>268.04999550000002</v>
       </c>
       <c r="E438" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -9634,7 +9634,7 @@
         <v>264.5625</v>
       </c>
       <c r="E439" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -9651,7 +9651,7 @@
         <v>257.47499099999999</v>
       </c>
       <c r="E440" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -9668,7 +9668,7 @@
         <v>257.36249550000002</v>
       </c>
       <c r="E441" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -9685,7 +9685,7 @@
         <v>233.41500075000002</v>
       </c>
       <c r="E442" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -9702,7 +9702,7 @@
         <v>237.09750374999999</v>
       </c>
       <c r="E443" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -9719,7 +9719,7 @@
         <v>240.78000674999998</v>
       </c>
       <c r="E444" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
         <v>249.38250750000003</v>
       </c>
       <c r="E445" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
         <v>244.71750674999998</v>
       </c>
       <c r="E446" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -9770,7 +9770,7 @@
         <v>253.58999625000001</v>
       </c>
       <c r="E447" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -9787,7 +9787,7 @@
         <v>250.61249549999999</v>
       </c>
       <c r="E448" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -9804,7 +9804,7 @@
         <v>247.50750750000003</v>
       </c>
       <c r="E449" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -9821,7 +9821,7 @@
         <v>244.34999099999999</v>
       </c>
       <c r="E450" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -9838,7 +9838,7 @@
         <v>243.15000900000001</v>
       </c>
       <c r="E451" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -9855,7 +9855,7 @@
         <v>242.41500075000002</v>
       </c>
       <c r="E452" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -9872,7 +9872,7 @@
         <v>236.745003</v>
       </c>
       <c r="E453" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -9889,7 +9889,7 @@
         <v>235.08750900000001</v>
       </c>
       <c r="E454" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -9906,7 +9906,7 @@
         <v>240.91500075000002</v>
       </c>
       <c r="E455" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -9923,7 +9923,7 @@
         <v>239.97750075000002</v>
       </c>
       <c r="E456" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
         <v>243.375</v>
       </c>
       <c r="E457" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -9957,7 +9957,7 @@
         <v>235.72499099999999</v>
       </c>
       <c r="E458" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
         <v>227.34750374999999</v>
       </c>
       <c r="E459" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -9991,7 +9991,7 @@
         <v>230.53500374999999</v>
       </c>
       <c r="E460" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
         <v>229.72499099999999</v>
       </c>
       <c r="E461" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -10025,7 +10025,7 @@
         <v>244.74749025</v>
       </c>
       <c r="E462" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -10042,7 +10042,7 @@
         <v>263.625</v>
       </c>
       <c r="E463" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -10059,7 +10059,7 @@
         <v>269.71499625000001</v>
       </c>
       <c r="E464" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -10076,7 +10076,7 @@
         <v>265.57500449999998</v>
       </c>
       <c r="E465" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -10093,7 +10093,7 @@
         <v>271.88999175000004</v>
       </c>
       <c r="E466" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -10110,7 +10110,7 @@
         <v>271.51499175000004</v>
       </c>
       <c r="E467" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -10127,7 +10127,7 @@
         <v>279.82500449999998</v>
       </c>
       <c r="E468" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -10144,7 +10144,7 @@
         <v>284.51250449999998</v>
       </c>
       <c r="E469" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -10161,7 +10161,7 @@
         <v>280.17750524999997</v>
       </c>
       <c r="E470" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -10178,7 +10178,7 @@
         <v>276.01499175000004</v>
       </c>
       <c r="E471" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -10195,7 +10195,7 @@
         <v>277.29750824999996</v>
       </c>
       <c r="E472" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
         <v>275.84999099999999</v>
       </c>
       <c r="E473" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -10229,7 +10229,7 @@
         <v>277.57500449999998</v>
       </c>
       <c r="E474" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -10246,7 +10246,7 @@
         <v>274.86749249999997</v>
       </c>
       <c r="E475" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -10263,7 +10263,7 @@
         <v>282.23249850000002</v>
       </c>
       <c r="E476" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -10280,7 +10280,7 @@
         <v>274.95748874999998</v>
       </c>
       <c r="E477" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -10297,7 +10297,7 @@
         <v>262.96499625000001</v>
       </c>
       <c r="E478" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -10314,7 +10314,7 @@
         <v>266.09999099999999</v>
       </c>
       <c r="E479" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -10331,7 +10331,7 @@
         <v>270.16500074999999</v>
       </c>
       <c r="E480" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -10348,7 +10348,7 @@
         <v>266.35501125000002</v>
       </c>
       <c r="E481" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -10365,7 +10365,7 @@
         <v>254.97750075000002</v>
       </c>
       <c r="E482" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -10382,7 +10382,7 @@
         <v>250.65749325000002</v>
       </c>
       <c r="E483" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -10399,7 +10399,7 @@
         <v>251.94749475000003</v>
       </c>
       <c r="E484" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -10416,7 +10416,7 @@
         <v>252.96750674999998</v>
       </c>
       <c r="E485" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -10433,7 +10433,7 @@
         <v>251.370003</v>
       </c>
       <c r="E486" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -10450,7 +10450,7 @@
         <v>244.32000750000003</v>
       </c>
       <c r="E487" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -10467,7 +10467,7 @@
         <v>237.23249850000002</v>
       </c>
       <c r="E488" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -10484,7 +10484,7 @@
         <v>230.85749850000002</v>
       </c>
       <c r="E489" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -10501,7 +10501,7 @@
         <v>229.04999549999999</v>
       </c>
       <c r="E490" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -10518,7 +10518,7 @@
         <v>227.61000824999999</v>
       </c>
       <c r="E491" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -10535,7 +10535,7 @@
         <v>230.09999099999999</v>
       </c>
       <c r="E492" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -10552,7 +10552,7 @@
         <v>232.65000900000001</v>
       </c>
       <c r="E493" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -10569,7 +10569,7 @@
         <v>228.98249850000002</v>
       </c>
       <c r="E494" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -10586,7 +10586,7 @@
         <v>229.125</v>
       </c>
       <c r="E495" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -10603,7 +10603,7 @@
         <v>236.35501125000002</v>
       </c>
       <c r="E496" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -10620,7 +10620,7 @@
         <v>234.39749924999998</v>
       </c>
       <c r="E497" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -10637,7 +10637,7 @@
         <v>241.14749924999998</v>
       </c>
       <c r="E498" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -10654,7 +10654,7 @@
         <v>239.70000450000001</v>
       </c>
       <c r="E499" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -10671,7 +10671,7 @@
         <v>238.58999625000001</v>
       </c>
       <c r="E500" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -10688,7 +10688,7 @@
         <v>231.82500450000001</v>
       </c>
       <c r="E501" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -10705,7 +10705,7 @@
         <v>229.36500524999997</v>
       </c>
       <c r="E502" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -10722,7 +10722,7 @@
         <v>222.59999099999999</v>
       </c>
       <c r="E503" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
         <v>218.07000750000003</v>
       </c>
       <c r="E504" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -10756,7 +10756,7 @@
         <v>232.83750900000001</v>
       </c>
       <c r="E505" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -10773,7 +10773,7 @@
         <v>237.41999850000002</v>
       </c>
       <c r="E506" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -10790,7 +10790,7 @@
         <v>236.10749850000002</v>
       </c>
       <c r="E507" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -10807,7 +10807,7 @@
         <v>231</v>
       </c>
       <c r="E508" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -10824,7 +10824,7 @@
         <v>230.625</v>
       </c>
       <c r="E509" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -10841,7 +10841,7 @@
         <v>231.75</v>
       </c>
       <c r="E510" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -10858,7 +10858,7 @@
         <v>229.39498874999998</v>
       </c>
       <c r="E511" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -10875,7 +10875,7 @@
         <v>229.51499175000001</v>
       </c>
       <c r="E512" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -10892,7 +10892,7 @@
         <v>225.31500975</v>
       </c>
       <c r="E513" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -10909,7 +10909,7 @@
         <v>225.17250824999999</v>
       </c>
       <c r="E514" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -10926,7 +10926,7 @@
         <v>226.58248874999998</v>
       </c>
       <c r="E515" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -10943,7 +10943,7 @@
         <v>223.42499549999999</v>
       </c>
       <c r="E516" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -10960,7 +10960,7 @@
         <v>224.00999475000003</v>
       </c>
       <c r="E517" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -10977,7 +10977,7 @@
         <v>221.47499099999999</v>
       </c>
       <c r="E518" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -10994,7 +10994,7 @@
         <v>222.24000524999997</v>
       </c>
       <c r="E519" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -11011,7 +11011,7 @@
         <v>229.125</v>
       </c>
       <c r="E520" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -11028,7 +11028,7 @@
         <v>231.53249325000002</v>
       </c>
       <c r="E521" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -11045,7 +11045,7 @@
         <v>222.86249549999999</v>
       </c>
       <c r="E522" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
         <v>220.57500450000001</v>
       </c>
       <c r="E523" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -11079,7 +11079,7 @@
         <v>220.65000900000001</v>
       </c>
       <c r="E524" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -11096,7 +11096,7 @@
         <v>220.89749924999998</v>
       </c>
       <c r="E525" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -11113,7 +11113,7 @@
         <v>213.43499025</v>
       </c>
       <c r="E526" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -11130,7 +11130,7 @@
         <v>207.24000524999997</v>
       </c>
       <c r="E527" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -11147,7 +11147,7 @@
         <v>207.90749325000002</v>
       </c>
       <c r="E528" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -11164,7 +11164,7 @@
         <v>206.65500674999998</v>
       </c>
       <c r="E529" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -11181,7 +11181,7 @@
         <v>206.25</v>
       </c>
       <c r="E530" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -11198,7 +11198,7 @@
         <v>194.8125</v>
       </c>
       <c r="E531" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -11215,7 +11215,7 @@
         <v>191.25749625</v>
       </c>
       <c r="E532" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -11232,7 +11232,7 @@
         <v>189.97500224999999</v>
       </c>
       <c r="E533" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -11249,7 +11249,7 @@
         <v>187.88249625</v>
       </c>
       <c r="E534" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -11266,7 +11266,7 @@
         <v>187.68000375</v>
       </c>
       <c r="E535" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -11283,7 +11283,7 @@
         <v>194.11500524999997</v>
       </c>
       <c r="E536" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -11300,7 +11300,7 @@
         <v>195.90000900000001</v>
       </c>
       <c r="E537" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -11317,7 +11317,7 @@
         <v>194.29499850000002</v>
       </c>
       <c r="E538" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -11334,7 +11334,7 @@
         <v>190.70250300000001</v>
       </c>
       <c r="E539" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -11351,7 +11351,7 @@
         <v>184.51500300000001</v>
       </c>
       <c r="E540" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>182.08499925000001</v>
       </c>
       <c r="E541" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -11385,7 +11385,7 @@
         <v>182.25</v>
       </c>
       <c r="E542" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -11402,7 +11402,7 @@
         <v>182.25</v>
       </c>
       <c r="E543" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -11419,7 +11419,7 @@
         <v>183.99000525</v>
       </c>
       <c r="E544" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -11436,7 +11436,7 @@
         <v>186.24000525</v>
       </c>
       <c r="E545" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -11453,7 +11453,7 @@
         <v>185.63249625</v>
       </c>
       <c r="E546" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -11470,7 +11470,7 @@
         <v>186.75</v>
       </c>
       <c r="E547" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -11487,7 +11487,7 @@
         <v>186.20250300000001</v>
       </c>
       <c r="E548" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
         <v>186.83250075000001</v>
       </c>
       <c r="E549" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -11521,7 +11521,7 @@
         <v>182.92499549999999</v>
       </c>
       <c r="E550" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -11538,7 +11538,7 @@
         <v>181.50749625</v>
       </c>
       <c r="E551" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -11555,7 +11555,7 @@
         <v>187.64999775000001</v>
       </c>
       <c r="E552" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
         <v>191.66999850000002</v>
       </c>
       <c r="E553" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -11589,7 +11589,7 @@
         <v>204.45000450000001</v>
       </c>
       <c r="E554" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -11606,7 +11606,7 @@
         <v>205.50750750000003</v>
       </c>
       <c r="E555" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -11623,7 +11623,7 @@
         <v>198.11249549999999</v>
       </c>
       <c r="E556" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -11640,7 +11640,7 @@
         <v>201.375</v>
       </c>
       <c r="E557" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -11657,7 +11657,7 @@
         <v>207.33000149999998</v>
       </c>
       <c r="E558" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -11674,7 +11674,7 @@
         <v>208.95748874999998</v>
       </c>
       <c r="E559" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -11691,7 +11691,7 @@
         <v>202.88250750000003</v>
       </c>
       <c r="E560" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -11708,7 +11708,7 @@
         <v>199.58248874999998</v>
       </c>
       <c r="E561" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -11725,7 +11725,7 @@
         <v>199.61249549999999</v>
       </c>
       <c r="E562" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
         <v>192.15000900000001</v>
       </c>
       <c r="E563" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -11759,7 +11759,7 @@
         <v>192.31500975</v>
       </c>
       <c r="E564" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -11776,7 +11776,7 @@
         <v>187.97250375000002</v>
       </c>
       <c r="E565" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -11793,7 +11793,7 @@
         <v>187.25999475</v>
       </c>
       <c r="E566" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -11810,7 +11810,7 @@
         <v>185.78250524999999</v>
       </c>
       <c r="E567" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -11827,7 +11827,7 @@
         <v>186.78750224999999</v>
       </c>
       <c r="E568" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -11844,7 +11844,7 @@
         <v>185.77499775000001</v>
       </c>
       <c r="E569" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -11861,7 +11861,7 @@
         <v>185.32500450000001</v>
       </c>
       <c r="E570" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -11878,7 +11878,7 @@
         <v>186.39000300000001</v>
       </c>
       <c r="E571" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -11895,7 +11895,7 @@
         <v>188.0625</v>
       </c>
       <c r="E572" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -11912,7 +11912,7 @@
         <v>188.85000224999999</v>
       </c>
       <c r="E573" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -11929,7 +11929,7 @@
         <v>187.23749549999999</v>
       </c>
       <c r="E574" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -11946,7 +11946,7 @@
         <v>184.125</v>
       </c>
       <c r="E575" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -11963,7 +11963,7 @@
         <v>182.25749625</v>
       </c>
       <c r="E576" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -11980,7 +11980,7 @@
         <v>180.5625</v>
       </c>
       <c r="E577" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -11997,7 +11997,7 @@
         <v>176.6850015</v>
       </c>
       <c r="E578" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -12014,7 +12014,7 @@
         <v>175.77749624999998</v>
       </c>
       <c r="E579" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -12031,7 +12031,7 @@
         <v>172.192497</v>
       </c>
       <c r="E580" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -12048,7 +12048,7 @@
         <v>169.1850015</v>
       </c>
       <c r="E581" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -12065,7 +12065,7 @@
         <v>170.00999475</v>
       </c>
       <c r="E582" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -12082,7 +12082,7 @@
         <v>170.16749924999999</v>
       </c>
       <c r="E583" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -12099,7 +12099,7 @@
         <v>171</v>
       </c>
       <c r="E584" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -12116,7 +12116,7 @@
         <v>169.08749775000001</v>
       </c>
       <c r="E585" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -12133,7 +12133,7 @@
         <v>166.46249775000001</v>
       </c>
       <c r="E586" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -12150,7 +12150,7 @@
         <v>160.73249850000002</v>
       </c>
       <c r="E587" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -12167,7 +12167,7 @@
         <v>158.22000524999999</v>
       </c>
       <c r="E588" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/data/price/TSLA.xlsx
+++ b/data/price/TSLA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7C517-A69F-40E5-83B3-120CC14CBD57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAAA64-6459-42BD-BA16-271F261A3A8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2237" yWindow="2460" windowWidth="17589" windowHeight="10989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="2730" windowWidth="16920" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
   <si>
     <t>Date</t>
   </si>
@@ -1814,6 +1814,9 @@
   </si>
   <si>
     <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1859,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1884,13 +1890,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1DC27350-D78C-44B6-A9DC-4A38D47328BF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11" unboundColumnsRight="1">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="12" unboundColumnsRight="2">
+    <queryTableFields count="6">
       <queryTableField id="3" name="High" tableColumnId="3"/>
       <queryTableField id="4" name="Low" tableColumnId="4"/>
       <queryTableField id="8" name="Upper bound" tableColumnId="8"/>
       <queryTableField id="9" name="Lower bound" tableColumnId="9"/>
       <queryTableField id="10" dataBound="0" tableColumnId="1"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Date"/>
@@ -1900,14 +1907,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{710B0A54-9D81-4514-AE1B-1E4D7E35B13C}" name="TSLA" displayName="TSLA" ref="A1:E588" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E588" xr:uid="{EBAB9C86-BFF2-46C0-8401-E0657CA3A8C4}"/>
-  <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{223DA2CE-2DDD-4E6C-ACEF-B92CFC21616D}" uniqueName="3" name="High" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{617E7A5B-38A9-42B5-B812-E47C987D7823}" uniqueName="4" name="Low" queryTableFieldId="4" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{146F48DB-4953-4859-B27C-F6F353F45BFD}" uniqueName="8" name="Upper Bound" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{F91A7205-F821-4B2A-86DF-D807F8601816}" uniqueName="9" name="Lower Bound" queryTableFieldId="9" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{710B0A54-9D81-4514-AE1B-1E4D7E35B13C}" name="TSLA" displayName="TSLA" ref="A1:F588" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F588" xr:uid="{EBAB9C86-BFF2-46C0-8401-E0657CA3A8C4}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{223DA2CE-2DDD-4E6C-ACEF-B92CFC21616D}" uniqueName="3" name="High" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{617E7A5B-38A9-42B5-B812-E47C987D7823}" uniqueName="4" name="Low" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{146F48DB-4953-4859-B27C-F6F353F45BFD}" uniqueName="8" name="Upper Bound" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F91A7205-F821-4B2A-86DF-D807F8601816}" uniqueName="9" name="Lower Bound" queryTableFieldId="9" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{31C3472B-DC09-4E91-8553-2513342310A7}" uniqueName="1" name="Date" queryTableFieldId="10"/>
+    <tableColumn id="2" xr3:uid="{DD221EE9-5801-4CD6-A299-2B11D2F15848}" uniqueName="2" name="Close" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2176,21 +2184,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA4D140-F1A1-43A0-A745-9D7D6FDAD913}">
-  <dimension ref="A1:E588"/>
+  <dimension ref="A1:F588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="F573" sqref="F573"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2206,8 +2214,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>256.60998499999999</v>
       </c>
@@ -2225,8 +2236,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="1">
+        <v>255.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>247.13000500000001</v>
       </c>
@@ -2244,8 +2258,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="1">
+        <v>244.10000600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>240</v>
       </c>
@@ -2263,8 +2280,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1">
+        <v>234.009995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>244.21000699999999</v>
       </c>
@@ -2282,8 +2302,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="1">
+        <v>238.69000199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>243.979996</v>
       </c>
@@ -2301,8 +2324,11 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="1">
+        <v>241.470001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>246.679993</v>
       </c>
@@ -2320,8 +2346,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="1">
+        <v>235.13999899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>259</v>
       </c>
@@ -2339,8 +2368,11 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="1">
+        <v>247.63000500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>265.32000699999998</v>
       </c>
@@ -2358,8 +2390,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="1">
+        <v>258.66000400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>265.60000600000001</v>
       </c>
@@ -2377,8 +2412,11 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="1">
+        <v>263.89999399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>269.67999300000002</v>
       </c>
@@ -2396,8 +2434,11 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="1">
+        <v>262.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>274.83999599999999</v>
       </c>
@@ -2415,8 +2456,11 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="1">
+        <v>273.26001000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>274.790009</v>
       </c>
@@ -2434,8 +2478,11 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="1">
+        <v>271.23001099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>275</v>
       </c>
@@ -2453,8 +2500,11 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="1">
+        <v>273.35998499999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>268.88000499999998</v>
       </c>
@@ -2472,8 +2522,11 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="1">
+        <v>266.38000499999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>271.95001200000002</v>
       </c>
@@ -2491,8 +2544,11 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="1">
+        <v>267.70001200000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>270.5</v>
       </c>
@@ -2510,8 +2566,11 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="1">
+        <v>268.42001299999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>278.38000499999998</v>
       </c>
@@ -2529,8 +2588,11 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="1">
+        <v>276.05999800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>275</v>
       </c>
@@ -2548,8 +2610,11 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19" s="1">
+        <v>272.30999800000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>281.16000400000001</v>
       </c>
@@ -2567,8 +2632,11 @@
       <c r="E20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="1">
+        <v>273.20001200000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>276.10000600000001</v>
       </c>
@@ -2586,8 +2654,11 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21" s="1">
+        <v>274.959991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>271.20001200000002</v>
       </c>
@@ -2605,8 +2676,11 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22" s="1">
+        <v>267.77999899999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>296.17001299999998</v>
       </c>
@@ -2624,8 +2698,11 @@
       <c r="E23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23" s="1">
+        <v>291.80999800000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>289.44000199999999</v>
       </c>
@@ -2643,8 +2720,11 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="1">
+        <v>285.88000499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>289.20001200000002</v>
       </c>
@@ -2662,8 +2742,11 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25" s="1">
+        <v>289.17999300000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>280.16000400000001</v>
       </c>
@@ -2681,8 +2764,11 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26" s="1">
+        <v>279.85998499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>280.32998700000002</v>
       </c>
@@ -2700,8 +2786,11 @@
       <c r="E27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="1">
+        <v>278.61999500000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>275.36999500000002</v>
       </c>
@@ -2719,8 +2808,11 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28" s="1">
+        <v>274.82998700000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>270.26001000000002</v>
       </c>
@@ -2738,8 +2830,11 @@
       <c r="E29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29" s="1">
+        <v>267.76998900000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>263.17999300000002</v>
       </c>
@@ -2757,8 +2852,11 @@
       <c r="E30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30" s="1">
+        <v>260.42001299999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>272.79998799999998</v>
       </c>
@@ -2776,8 +2874,11 @@
       <c r="E31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31" s="1">
+        <v>264.52999899999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>276.45001200000002</v>
       </c>
@@ -2795,8 +2896,11 @@
       <c r="E32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32" s="1">
+        <v>274.01998900000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>274.97000100000002</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="E33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33" s="1">
+        <v>273.60000600000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>273.29998799999998</v>
       </c>
@@ -2833,8 +2940,11 @@
       <c r="E34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34" s="1">
+        <v>267.47000100000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>278.04998799999998</v>
       </c>
@@ -2852,8 +2962,11 @@
       <c r="E35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35" s="1">
+        <v>269.48998999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>283.72000100000002</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="E36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36" s="1">
+        <v>275.42999300000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>295.39001500000001</v>
       </c>
@@ -2890,8 +3006,11 @@
       <c r="E37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37" s="1">
+        <v>289.959991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>291.98998999999998</v>
       </c>
@@ -2909,8 +3028,11 @@
       <c r="E38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38" s="1">
+        <v>288.959991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>288.07000699999998</v>
       </c>
@@ -2928,8 +3050,11 @@
       <c r="E39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39" s="1">
+        <v>283.35998499999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>291.27999899999998</v>
       </c>
@@ -2947,8 +3072,11 @@
       <c r="E40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" s="1">
+        <v>290.92001299999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>285.58999599999999</v>
       </c>
@@ -2966,8 +3094,11 @@
       <c r="E41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41" s="1">
+        <v>284.14001500000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>284.70001200000002</v>
       </c>
@@ -2985,8 +3116,11 @@
       <c r="E42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42" s="1">
+        <v>276.58999599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>281.51001000000002</v>
       </c>
@@ -3004,8 +3138,11 @@
       <c r="E43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43" s="1">
+        <v>276.23998999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>284</v>
       </c>
@@ -3023,8 +3160,11 @@
       <c r="E44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44" s="1">
+        <v>276.540009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>299</v>
       </c>
@@ -3042,8 +3182,11 @@
       <c r="E45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45" s="1">
+        <v>285.35998499999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>307.13000499999998</v>
       </c>
@@ -3061,8 +3204,11 @@
       <c r="E46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46" s="1">
+        <v>294.790009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>320</v>
       </c>
@@ -3080,8 +3226,11 @@
       <c r="E47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47" s="1">
+        <v>319.88000499999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>316.29998799999998</v>
       </c>
@@ -3099,8 +3248,11 @@
       <c r="E48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48" s="1">
+        <v>314.73998999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>302.01001000000002</v>
       </c>
@@ -3118,8 +3270,11 @@
       <c r="E49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49" s="1">
+        <v>297.85998499999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>302.89999399999999</v>
       </c>
@@ -3137,8 +3292,11 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50" s="1">
+        <v>298.76998900000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>296.5</v>
       </c>
@@ -3156,8 +3314,11 @@
       <c r="E51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51" s="1">
+        <v>294.709991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>303.23998999999998</v>
       </c>
@@ -3175,8 +3336,11 @@
       <c r="E52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52" s="1">
+        <v>291.23001099999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>306.29998799999998</v>
       </c>
@@ -3194,8 +3358,11 @@
       <c r="E53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53" s="1">
+        <v>302.55999800000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>311.540009</v>
       </c>
@@ -3213,8 +3380,11 @@
       <c r="E54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54" s="1">
+        <v>305.64001500000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>308</v>
       </c>
@@ -3232,8 +3402,11 @@
       <c r="E55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55" s="1">
+        <v>307.88000499999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>306.76998900000001</v>
       </c>
@@ -3251,8 +3424,11 @@
       <c r="E56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56" s="1">
+        <v>303.76998900000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>312.75</v>
       </c>
@@ -3270,8 +3446,11 @@
       <c r="E57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57" s="1">
+        <v>308.17001299999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>318.19000199999999</v>
       </c>
@@ -3289,8 +3468,11 @@
       <c r="E58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58" s="1">
+        <v>311.80999800000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>318.60000600000001</v>
       </c>
@@ -3308,8 +3490,11 @@
       <c r="E59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59" s="1">
+        <v>312.83999599999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>307.45001200000002</v>
       </c>
@@ -3327,8 +3512,11 @@
       <c r="E60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60" s="1">
+        <v>305.79998799999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>314.70001200000002</v>
       </c>
@@ -3346,8 +3534,11 @@
       <c r="E61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61" s="1">
+        <v>307.51001000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>324.23998999999998</v>
       </c>
@@ -3365,8 +3556,11 @@
       <c r="E62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62" s="1">
+        <v>317.22000100000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>322.44000199999999</v>
       </c>
@@ -3384,8 +3578,11 @@
       <c r="E63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63" s="1">
+        <v>321.35000600000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>315.29998799999998</v>
       </c>
@@ -3403,8 +3600,11 @@
       <c r="E64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" s="1">
+        <v>312.89001500000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>316.10000600000001</v>
       </c>
@@ -3422,8 +3622,11 @@
       <c r="E65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65" s="1">
+        <v>312.209991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>311.55999800000001</v>
       </c>
@@ -3441,8 +3644,11 @@
       <c r="E66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66" s="1">
+        <v>307.01998900000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>309</v>
       </c>
@@ -3460,8 +3666,11 @@
       <c r="E67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" s="1">
+        <v>308.76998900000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>298.55999800000001</v>
       </c>
@@ -3479,8 +3688,11 @@
       <c r="E68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68" s="1">
+        <v>297.459991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>297.459991</v>
       </c>
@@ -3498,8 +3710,11 @@
       <c r="E69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69" s="1">
+        <v>296.38000499999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>298.51998900000001</v>
       </c>
@@ -3517,8 +3732,11 @@
       <c r="E70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70" s="1">
+        <v>297.040009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>293.67999300000002</v>
       </c>
@@ -3536,8 +3754,11 @@
       <c r="E71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71" s="1">
+        <v>291.51001000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>294.5</v>
       </c>
@@ -3555,8 +3776,11 @@
       <c r="E72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72" s="1">
+        <v>287.58999599999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>308</v>
       </c>
@@ -3574,8 +3798,11 @@
       <c r="E73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73" s="1">
+        <v>298.92001299999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>327.13000499999998</v>
       </c>
@@ -3593,8 +3820,11 @@
       <c r="E74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74" s="1">
+        <v>302.26001000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>351.5</v>
       </c>
@@ -3612,8 +3842,11 @@
       <c r="E75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75" s="1">
+        <v>347.30999800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>352</v>
       </c>
@@ -3631,8 +3864,11 @@
       <c r="E76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76" s="1">
+        <v>346.04998799999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>348.79998799999998</v>
       </c>
@@ -3650,8 +3886,11 @@
       <c r="E77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77" s="1">
+        <v>344.42999300000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>342.5</v>
       </c>
@@ -3669,8 +3908,11 @@
       <c r="E78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78" s="1">
+        <v>334.39999399999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>348.41000400000001</v>
       </c>
@@ -3688,8 +3930,11 @@
       <c r="E79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79" s="1">
+        <v>347.26001000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>345.39001500000001</v>
       </c>
@@ -3707,8 +3952,11 @@
       <c r="E80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80" s="1">
+        <v>344.97000100000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>343.5</v>
       </c>
@@ -3726,8 +3974,11 @@
       <c r="E81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81" s="1">
+        <v>338.52999899999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>344.01001000000002</v>
       </c>
@@ -3745,8 +3996,11 @@
       <c r="E82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82" s="1">
+        <v>335.35000600000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>336.73998999999998</v>
       </c>
@@ -3764,8 +4018,11 @@
       <c r="E83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83" s="1">
+        <v>334.959991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>318</v>
       </c>
@@ -3783,8 +4040,11 @@
       <c r="E84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84" s="1">
+        <v>317.69000199999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>309.39999399999999</v>
       </c>
@@ -3802,8 +4062,11 @@
       <c r="E85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85" s="1">
+        <v>300.35998499999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>315.13000499999998</v>
       </c>
@@ -3821,8 +4084,11 @@
       <c r="E86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86" s="1">
+        <v>310.11999500000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>339.209991</v>
       </c>
@@ -3840,8 +4106,11 @@
       <c r="E87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87" s="1">
+        <v>332.79998799999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>336.23998999999998</v>
       </c>
@@ -3859,8 +4128,11 @@
       <c r="E88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88" s="1">
+        <v>333.86999500000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>322.17001299999998</v>
       </c>
@@ -3878,8 +4150,11 @@
       <c r="E89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89" s="1">
+        <v>316.13000499999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>326.97000100000002</v>
       </c>
@@ -3897,8 +4172,11 @@
       <c r="E90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90" s="1">
+        <v>326.08999599999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>314.5</v>
       </c>
@@ -3916,8 +4194,11 @@
       <c r="E91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91" s="1">
+        <v>295.39001500000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>323.47000100000002</v>
       </c>
@@ -3935,8 +4216,11 @@
       <c r="E92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92" s="1">
+        <v>319.76998900000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>330.290009</v>
       </c>
@@ -3954,8 +4238,11 @@
       <c r="E93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93" s="1">
+        <v>315.38000499999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>347.01001000000002</v>
       </c>
@@ -3973,8 +4260,11 @@
       <c r="E94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94" s="1">
+        <v>332.97000100000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>351.54998799999998</v>
       </c>
@@ -3992,8 +4282,11 @@
       <c r="E95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F95" s="1">
+        <v>337.02999899999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>365.70001200000002</v>
       </c>
@@ -4011,8 +4304,11 @@
       <c r="E96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F96" s="1">
+        <v>348.42001299999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>377.86999500000002</v>
       </c>
@@ -4030,8 +4326,11 @@
       <c r="E97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F97" s="1">
+        <v>365.709991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>377.44000199999999</v>
       </c>
@@ -4049,8 +4348,11 @@
       <c r="E98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F98" s="1">
+        <v>376.790009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>371.91000400000001</v>
       </c>
@@ -4068,8 +4370,11 @@
       <c r="E99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F99" s="1">
+        <v>366.60000600000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>372.17001299999998</v>
       </c>
@@ -4087,8 +4392,11 @@
       <c r="E100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F100" s="1">
+        <v>366.76001000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>365.98001099999999</v>
       </c>
@@ -4106,8 +4414,11 @@
       <c r="E101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F101" s="1">
+        <v>365.14999399999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>379.48998999999998</v>
       </c>
@@ -4125,8 +4436,11 @@
       <c r="E102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F102" s="1">
+        <v>357.97000100000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>367.38000499999998</v>
       </c>
@@ -4144,8 +4458,11 @@
       <c r="E103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F103" s="1">
+        <v>363.05999800000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>368.67999300000002</v>
       </c>
@@ -4163,8 +4480,11 @@
       <c r="E104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F104" s="1">
+        <v>359.70001200000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>366</v>
       </c>
@@ -4182,8 +4502,11 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F105" s="1">
+        <v>358.48998999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>351.60000600000001</v>
       </c>
@@ -4201,8 +4524,11 @@
       <c r="E106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F106" s="1">
+        <v>350.48001099999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>347.5</v>
       </c>
@@ -4220,8 +4546,11 @@
       <c r="E107" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F107" s="1">
+        <v>341.17001299999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>348.27999899999998</v>
       </c>
@@ -4239,8 +4568,11 @@
       <c r="E108" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F108" s="1">
+        <v>347.86999500000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>346.959991</v>
       </c>
@@ -4258,8 +4590,11 @@
       <c r="E109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F109" s="1">
+        <v>343.92001299999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>346.22000100000002</v>
       </c>
@@ -4277,8 +4612,11 @@
       <c r="E110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F110" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>337.5</v>
       </c>
@@ -4296,8 +4634,11 @@
       <c r="E111" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F111" s="1">
+        <v>325.82998700000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>353.10000600000001</v>
       </c>
@@ -4315,8 +4656,11 @@
       <c r="E112" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F112" s="1">
+        <v>338.19000199999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>349.79998799999998</v>
       </c>
@@ -4334,8 +4678,11 @@
       <c r="E113" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F113" s="1">
+        <v>347.48998999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>366.75</v>
       </c>
@@ -4353,8 +4700,11 @@
       <c r="E114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F114" s="1">
+        <v>353.47000100000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>355.70001200000002</v>
       </c>
@@ -4372,8 +4722,11 @@
       <c r="E115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F115" s="1">
+        <v>354.30999800000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>348.57998700000002</v>
       </c>
@@ -4391,8 +4744,11 @@
       <c r="E116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F116" s="1">
+        <v>348.44000199999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>347.10998499999999</v>
       </c>
@@ -4410,8 +4766,11 @@
       <c r="E117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F117" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>344.70001200000002</v>
       </c>
@@ -4429,8 +4788,11 @@
       <c r="E118" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F118" s="1">
+        <v>338.73001099999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>349.77999899999998</v>
       </c>
@@ -4448,8 +4810,11 @@
       <c r="E119" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F119" s="1">
+        <v>331.27999899999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>354</v>
       </c>
@@ -4467,8 +4832,11 @@
       <c r="E120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F120" s="1">
+        <v>350.51001000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>357.57998700000002</v>
       </c>
@@ -4486,8 +4854,11 @@
       <c r="E121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F121" s="1">
+        <v>351.39999399999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>351.17999300000002</v>
       </c>
@@ -4505,8 +4876,11 @@
       <c r="E122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F122" s="1">
+        <v>348.16000400000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>348.79998799999998</v>
       </c>
@@ -4524,8 +4898,11 @@
       <c r="E123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F123" s="1">
+        <v>341.05999800000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>343.959991</v>
       </c>
@@ -4543,8 +4920,11 @@
       <c r="E124" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F124" s="1">
+        <v>341.39999399999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>349.20001200000002</v>
       </c>
@@ -4562,8 +4942,11 @@
       <c r="E125" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F125" s="1">
+        <v>346.41000400000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>347.83999599999999</v>
       </c>
@@ -4581,8 +4964,11 @@
       <c r="E126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F126" s="1">
+        <v>344.27999899999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>342</v>
       </c>
@@ -4600,8 +4986,11 @@
       <c r="E127" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F127" s="1">
+        <v>337.32000699999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>337.89999399999999</v>
       </c>
@@ -4619,8 +5008,11 @@
       <c r="E128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F128" s="1">
+        <v>329.89999399999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>347.16000400000001</v>
       </c>
@@ -4638,8 +5030,11 @@
       <c r="E129" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F129" s="1">
+        <v>334.85000600000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>339.89999399999999</v>
       </c>
@@ -4657,8 +5052,11 @@
       <c r="E130" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F130" s="1">
+        <v>330.89999399999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>321</v>
       </c>
@@ -4676,8 +5074,11 @@
       <c r="E131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F131" s="1">
+        <v>314.85998499999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>304.44000199999999</v>
       </c>
@@ -4695,8 +5096,11 @@
       <c r="E132" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F132" s="1">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>297.92999300000002</v>
       </c>
@@ -4714,8 +5118,11 @@
       <c r="E133" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F133" s="1">
+        <v>294.14001500000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>261.85998499999999</v>
       </c>
@@ -4733,8 +5140,11 @@
       <c r="E134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F134" s="1">
+        <v>260.95001200000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>269.66000400000001</v>
       </c>
@@ -4752,8 +5162,11 @@
       <c r="E135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F135" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>271</v>
       </c>
@@ -4771,8 +5184,11 @@
       <c r="E136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F136" s="1">
+        <v>263.91000400000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>282.70001200000002</v>
       </c>
@@ -4790,8 +5206,11 @@
       <c r="E137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F137" s="1">
+        <v>271.77999899999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>277.38000499999998</v>
       </c>
@@ -4809,8 +5228,11 @@
       <c r="E138" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F138" s="1">
+        <v>276.58999599999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>263.27999899999998</v>
       </c>
@@ -4828,8 +5250,11 @@
       <c r="E139" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F139" s="1">
+        <v>259.58999599999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>261.98998999999998</v>
       </c>
@@ -4847,8 +5272,11 @@
       <c r="E140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F140" s="1">
+        <v>258.77999899999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>262.25</v>
       </c>
@@ -4866,8 +5294,11 @@
       <c r="E141" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F141" s="1">
+        <v>252.229996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>265.51001000000002</v>
       </c>
@@ -4885,8 +5316,11 @@
       <c r="E142" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F142" s="1">
+        <v>256.88000499999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>266.76998900000001</v>
       </c>
@@ -4904,8 +5338,11 @@
       <c r="E143" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F143" s="1">
+        <v>262.79998799999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>267.76001000000002</v>
       </c>
@@ -4923,8 +5360,11 @@
       <c r="E144" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F144" s="1">
+        <v>250.55999800000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>274.88000499999998</v>
       </c>
@@ -4942,8 +5382,11 @@
       <c r="E145" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F145" s="1">
+        <v>261.95001200000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>294</v>
       </c>
@@ -4961,8 +5404,11 @@
       <c r="E146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F146" s="1">
+        <v>281.82998700000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>304.60000600000001</v>
       </c>
@@ -4980,8 +5426,11 @@
       <c r="E147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F147" s="1">
+        <v>294.79998799999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>316.83999599999999</v>
       </c>
@@ -4999,8 +5448,11 @@
       <c r="E148" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F148" s="1">
+        <v>301.01998900000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>311.44000199999999</v>
       </c>
@@ -5018,8 +5470,11 @@
       <c r="E149" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F149" s="1">
+        <v>310.70001200000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>278</v>
       </c>
@@ -5037,8 +5492,11 @@
       <c r="E150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F150" s="1">
+        <v>264.76998900000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>314.959991</v>
       </c>
@@ -5056,8 +5514,11 @@
       <c r="E151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F151" s="1">
+        <v>307.51998900000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>313.89001500000001</v>
       </c>
@@ -5075,8 +5536,11 @@
       <c r="E152" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F152" s="1">
+        <v>309.57998700000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>304.60000600000001</v>
       </c>
@@ -5094,8 +5558,11 @@
       <c r="E153" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F153" s="1">
+        <v>300.98998999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>303</v>
       </c>
@@ -5113,8 +5580,11 @@
       <c r="E154" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F154" s="1">
+        <v>299.67999300000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>300.57998700000002</v>
       </c>
@@ -5132,8 +5602,11 @@
       <c r="E155" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F155" s="1">
+        <v>299.10000600000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>305.98001099999999</v>
       </c>
@@ -5151,8 +5624,11 @@
       <c r="E156" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F156" s="1">
+        <v>298.32998700000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>300</v>
       </c>
@@ -5170,8 +5646,11 @@
       <c r="E157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F157" s="1">
+        <v>299.01998900000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>302.64001500000001</v>
       </c>
@@ -5189,8 +5668,11 @@
       <c r="E158" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F158" s="1">
+        <v>284.959991</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>300.86999500000002</v>
       </c>
@@ -5208,8 +5690,11 @@
       <c r="E159" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F159" s="1">
+        <v>294.83999599999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>297.32998700000002</v>
       </c>
@@ -5227,8 +5712,11 @@
       <c r="E160" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F160" s="1">
+        <v>295.20001200000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>295</v>
       </c>
@@ -5246,8 +5734,11 @@
       <c r="E161" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F161" s="1">
+        <v>289.459991</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>292.5</v>
       </c>
@@ -5265,8 +5756,11 @@
       <c r="E162" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F162" s="1">
+        <v>290.540009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>282</v>
       </c>
@@ -5284,8 +5778,11 @@
       <c r="E163" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F163" s="1">
+        <v>279.44000199999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>286.02999899999998</v>
       </c>
@@ -5303,8 +5800,11 @@
       <c r="E164" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F164" s="1">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>268.35000600000001</v>
       </c>
@@ -5322,8 +5822,11 @@
       <c r="E165" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F165" s="1">
+        <v>263.23998999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>291.17001299999998</v>
       </c>
@@ -5341,8 +5844,11 @@
       <c r="E166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F166" s="1">
+        <v>280.95001200000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>286.77999899999998</v>
       </c>
@@ -5360,8 +5866,11 @@
       <c r="E167" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F167" s="1">
+        <v>280.73998999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>298.19000199999999</v>
       </c>
@@ -5379,8 +5888,11 @@
       <c r="E168" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F168" s="1">
+        <v>288.95001200000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>305.30999800000001</v>
       </c>
@@ -5398,8 +5910,11 @@
       <c r="E169" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F169" s="1">
+        <v>301.66000400000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>304.60000600000001</v>
       </c>
@@ -5417,8 +5932,11 @@
       <c r="E170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F170" s="1">
+        <v>303.14999399999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>311.85000600000001</v>
       </c>
@@ -5436,8 +5954,11 @@
       <c r="E171" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F171" s="1">
+        <v>305.01001000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>318.88000499999998</v>
       </c>
@@ -5455,8 +5976,11 @@
       <c r="E172" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F172" s="1">
+        <v>311.85998499999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>322.44000199999999</v>
       </c>
@@ -5474,8 +5998,11 @@
       <c r="E173" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F173" s="1">
+        <v>319.26998900000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>323.85000600000001</v>
       </c>
@@ -5493,8 +6020,11 @@
       <c r="E174" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F174" s="1">
+        <v>322.82000699999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>327.32000699999998</v>
       </c>
@@ -5512,8 +6042,11 @@
       <c r="E175" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F175" s="1">
+        <v>320.10000600000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>323.88000499999998</v>
       </c>
@@ -5531,8 +6064,11 @@
       <c r="E176" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F176" s="1">
+        <v>321.64001500000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>324.790009</v>
       </c>
@@ -5550,8 +6086,11 @@
       <c r="E177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F177" s="1">
+        <v>321.89999399999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>308.5</v>
       </c>
@@ -5569,8 +6108,11 @@
       <c r="E178" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F178" s="1">
+        <v>308.44000199999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>326.76998900000001</v>
       </c>
@@ -5588,8 +6130,11 @@
       <c r="E179" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F179" s="1">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>342.27999899999998</v>
       </c>
@@ -5607,8 +6152,11 @@
       <c r="E180" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F180" s="1">
+        <v>335.45001200000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>344.48998999999998</v>
       </c>
@@ -5626,8 +6174,11 @@
       <c r="E181" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F181" s="1">
+        <v>338.69000199999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>359.20001200000002</v>
       </c>
@@ -5645,8 +6196,11 @@
       <c r="E182" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F182" s="1">
+        <v>347.64001500000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>363.19000199999999</v>
       </c>
@@ -5664,8 +6218,11 @@
       <c r="E183" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F183" s="1">
+        <v>356.41000400000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>360</v>
       </c>
@@ -5683,8 +6240,11 @@
       <c r="E184" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F184" s="1">
+        <v>355.48998999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>367.01001000000002</v>
       </c>
@@ -5702,8 +6262,11 @@
       <c r="E185" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F185" s="1">
+        <v>352.45001200000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>382.64001500000001</v>
       </c>
@@ -5721,8 +6284,11 @@
       <c r="E186" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F186" s="1">
+        <v>370.33999599999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>387.459991</v>
       </c>
@@ -5740,8 +6306,11 @@
       <c r="E187" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F187" s="1">
+        <v>379.57000699999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>354.98001099999999</v>
       </c>
@@ -5759,8 +6328,11 @@
       <c r="E188" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F188" s="1">
+        <v>341.98998999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>355</v>
       </c>
@@ -5778,8 +6350,11 @@
       <c r="E189" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F189" s="1">
+        <v>348.17001299999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>349.98998999999998</v>
       </c>
@@ -5797,8 +6372,11 @@
       <c r="E190" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F190" s="1">
+        <v>349.540009</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>303</v>
       </c>
@@ -5816,8 +6394,11 @@
       <c r="E191" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F191" s="1">
+        <v>300.83999599999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>298.32000699999998</v>
       </c>
@@ -5835,8 +6416,11 @@
       <c r="E192" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F192" s="1">
+        <v>298.14001500000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>296.10000600000001</v>
       </c>
@@ -5854,8 +6438,11 @@
       <c r="E193" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F193" s="1">
+        <v>290.17001299999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>307.69000199999999</v>
       </c>
@@ -5873,8 +6460,11 @@
       <c r="E194" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F194" s="1">
+        <v>297.17999300000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>310.70001200000002</v>
       </c>
@@ -5892,8 +6482,11 @@
       <c r="E195" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F195" s="1">
+        <v>306.64999399999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>309.61999500000002</v>
       </c>
@@ -5911,8 +6504,11 @@
       <c r="E196" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F196" s="1">
+        <v>308.73998999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>307.72000100000002</v>
       </c>
@@ -5930,8 +6526,11 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F197" s="1">
+        <v>297.42999300000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>305.5</v>
       </c>
@@ -5949,8 +6548,11 @@
       <c r="E198" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F198" s="1">
+        <v>303.20001200000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>323.23998999999998</v>
       </c>
@@ -5968,8 +6570,11 @@
       <c r="E199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F199" s="1">
+        <v>313.57998700000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>323.540009</v>
       </c>
@@ -5987,8 +6592,11 @@
       <c r="E200" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F200" s="1">
+        <v>320.23001099999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>325.5</v>
       </c>
@@ -6006,8 +6614,11 @@
       <c r="E201" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F201" s="1">
+        <v>323.85000600000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>324.73998999999998</v>
       </c>
@@ -6025,8 +6636,11 @@
       <c r="E202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F202" s="1">
+        <v>322.69000199999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>315.16000400000001</v>
       </c>
@@ -6044,8 +6658,11 @@
       <c r="E203" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F203" s="1">
+        <v>310.10000600000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>319.57998700000002</v>
       </c>
@@ -6063,8 +6680,11 @@
       <c r="E204" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F204" s="1">
+        <v>318.86999500000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>323.23001099999999</v>
       </c>
@@ -6082,8 +6702,11 @@
       <c r="E205" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F205" s="1">
+        <v>316.709991</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>321.94000199999999</v>
       </c>
@@ -6101,8 +6724,11 @@
       <c r="E206" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F206" s="1">
+        <v>318.959991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>327.67999300000002</v>
       </c>
@@ -6120,8 +6746,11 @@
       <c r="E207" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F207" s="1">
+        <v>322.47000100000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>318.51998900000001</v>
       </c>
@@ -6139,8 +6768,11 @@
       <c r="E208" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F208" s="1">
+        <v>318.51001000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>312.07000699999998</v>
       </c>
@@ -6158,8 +6790,11 @@
       <c r="E209" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F209" s="1">
+        <v>308.89999399999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>314.39001500000001</v>
       </c>
@@ -6177,8 +6812,11 @@
       <c r="E210" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F210" s="1">
+        <v>309.16000400000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>332.48998999999998</v>
       </c>
@@ -6196,8 +6834,11 @@
       <c r="E211" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F211" s="1">
+        <v>310.85998499999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>364.77999899999998</v>
       </c>
@@ -6215,8 +6856,11 @@
       <c r="E212" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F212" s="1">
+        <v>335.07000699999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>353.85998499999999</v>
       </c>
@@ -6234,8 +6878,11 @@
       <c r="E213" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F213" s="1">
+        <v>342.95001200000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>357.01998900000001</v>
       </c>
@@ -6253,8 +6900,11 @@
       <c r="E214" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F214" s="1">
+        <v>349.92999300000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>350.790009</v>
       </c>
@@ -6272,8 +6922,11 @@
       <c r="E215" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F215" s="1">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>343.54998799999998</v>
       </c>
@@ -6291,8 +6944,11 @@
       <c r="E216" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F216" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>338.47000100000002</v>
       </c>
@@ -6310,8 +6966,11 @@
       <c r="E217" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F217" s="1">
+        <v>333.01001000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>352.25</v>
       </c>
@@ -6329,8 +6988,11 @@
       <c r="E218" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F218" s="1">
+        <v>333.63000499999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>366.209991</v>
       </c>
@@ -6348,8 +7010,11 @@
       <c r="E219" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F219" s="1">
+        <v>347.51001000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>364.38000499999998</v>
       </c>
@@ -6367,8 +7032,11 @@
       <c r="E220" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F220" s="1">
+        <v>362.22000100000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>370</v>
       </c>
@@ -6386,8 +7054,11 @@
       <c r="E221" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F221" s="1">
+        <v>352.54998799999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>373.73001099999999</v>
       </c>
@@ -6405,8 +7076,11 @@
       <c r="E222" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F222" s="1">
+        <v>370.82998700000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>364.67001299999998</v>
       </c>
@@ -6424,8 +7098,11 @@
       <c r="E223" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F223" s="1">
+        <v>358.17001299999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>358.75</v>
       </c>
@@ -6443,8 +7120,11 @@
       <c r="E224" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F224" s="1">
+        <v>357.72000100000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>347.20001200000002</v>
       </c>
@@ -6462,8 +7142,11 @@
       <c r="E225" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F225" s="1">
+        <v>344.77999899999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>354.97000100000002</v>
       </c>
@@ -6481,8 +7164,11 @@
       <c r="E226" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F226" s="1">
+        <v>342.76998900000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>334.66000400000001</v>
       </c>
@@ -6500,8 +7186,11 @@
       <c r="E227" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F227" s="1">
+        <v>332.10000600000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>324.48001099999999</v>
       </c>
@@ -6519,8 +7208,11 @@
       <c r="E228" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F228" s="1">
+        <v>317.66000400000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>330</v>
       </c>
@@ -6538,8 +7230,11 @@
       <c r="E229" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F229" s="1">
+        <v>316.08999599999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>322.17001299999998</v>
       </c>
@@ -6557,8 +7252,11 @@
       <c r="E230" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F230" s="1">
+        <v>319.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>297.79998799999998</v>
       </c>
@@ -6576,8 +7274,11 @@
       <c r="E231" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F231" s="1">
+        <v>291.13000499999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>299</v>
       </c>
@@ -6595,8 +7296,11 @@
       <c r="E232" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F232" s="1">
+        <v>296.73998999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>291.95001200000002</v>
       </c>
@@ -6614,8 +7318,11 @@
       <c r="E233" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F233" s="1">
+        <v>291.82000699999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>290.36999500000002</v>
       </c>
@@ -6633,8 +7340,11 @@
       <c r="E234" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F234" s="1">
+        <v>284.73001099999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>295.01001000000002</v>
       </c>
@@ -6652,8 +7362,11 @@
       <c r="E235" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F235" s="1">
+        <v>291.72000100000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>286.5</v>
       </c>
@@ -6671,8 +7384,11 @@
       <c r="E236" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F236" s="1">
+        <v>283.76001000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>279.64001500000001</v>
       </c>
@@ -6690,8 +7406,11 @@
       <c r="E237" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F237" s="1">
+        <v>278.85000600000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>281.10998499999999</v>
       </c>
@@ -6709,8 +7428,11 @@
       <c r="E238" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F238" s="1">
+        <v>277.85000600000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>279.91000400000001</v>
       </c>
@@ -6728,8 +7450,11 @@
       <c r="E239" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F239" s="1">
+        <v>279.07000699999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>288</v>
       </c>
@@ -6747,8 +7472,11 @@
       <c r="E240" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F240" s="1">
+        <v>275.01001000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>291.48998999999998</v>
       </c>
@@ -6766,8 +7494,11 @@
       <c r="E241" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F241" s="1">
+        <v>284.48998999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>284.64999399999999</v>
       </c>
@@ -6785,8 +7516,11 @@
       <c r="E242" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F242" s="1">
+        <v>276.82000699999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>289.19000199999999</v>
       </c>
@@ -6804,8 +7538,11 @@
       <c r="E243" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F243" s="1">
+        <v>284.540009</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>288.80999800000001</v>
       </c>
@@ -6823,8 +7560,11 @@
       <c r="E244" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F244" s="1">
+        <v>286.48001099999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>286.959991</v>
       </c>
@@ -6842,8 +7582,11 @@
       <c r="E245" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F245" s="1">
+        <v>284.17999300000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>304.94000199999999</v>
       </c>
@@ -6861,8 +7604,11 @@
       <c r="E246" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F246" s="1">
+        <v>291.97000100000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>308.88000499999998</v>
       </c>
@@ -6880,8 +7626,11 @@
       <c r="E247" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F247" s="1">
+        <v>301.05999800000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>312.98998999999998</v>
       </c>
@@ -6899,8 +7648,11 @@
       <c r="E248" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F248" s="1">
+        <v>305.01998900000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>307.01001000000002</v>
       </c>
@@ -6918,8 +7670,11 @@
       <c r="E249" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F249" s="1">
+        <v>306.85000600000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>307.75</v>
       </c>
@@ -6937,8 +7692,11 @@
       <c r="E250" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F250" s="1">
+        <v>301.97000100000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>305.959991</v>
       </c>
@@ -6956,8 +7714,11 @@
       <c r="E251" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F251" s="1">
+        <v>302.76998900000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>296.85998499999999</v>
       </c>
@@ -6975,8 +7736,11 @@
       <c r="E252" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F252" s="1">
+        <v>294.08999599999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>288.040009</v>
       </c>
@@ -6994,8 +7758,11 @@
       <c r="E253" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F253" s="1">
+        <v>284.45001200000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>306.85000600000001</v>
       </c>
@@ -7013,8 +7780,11 @@
       <c r="E254" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F254" s="1">
+        <v>301.14999399999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>300.82000699999998</v>
       </c>
@@ -7032,8 +7802,11 @@
       <c r="E255" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F255" s="1">
+        <v>299.92001299999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>298.73001099999999</v>
       </c>
@@ -7051,8 +7824,11 @@
       <c r="E256" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F256" s="1">
+        <v>293.89999399999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>294.47000100000002</v>
       </c>
@@ -7070,8 +7846,11 @@
       <c r="E257" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F257" s="1">
+        <v>294.07998700000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>285.790009</v>
       </c>
@@ -7089,8 +7868,11 @@
       <c r="E258" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F258" s="1">
+        <v>285.48001099999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>285.16000400000001</v>
       </c>
@@ -7108,8 +7890,11 @@
       <c r="E259" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F259" s="1">
+        <v>280.69000199999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>287.08999599999999</v>
       </c>
@@ -7127,8 +7912,11 @@
       <c r="E260" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F260" s="1">
+        <v>283.459991</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>291.61999500000002</v>
       </c>
@@ -7146,8 +7934,11 @@
       <c r="E261" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F261" s="1">
+        <v>283.36999500000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>299.98001099999999</v>
       </c>
@@ -7165,8 +7956,11 @@
       <c r="E262" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F262" s="1">
+        <v>290.23998999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>301.01001000000002</v>
       </c>
@@ -7184,8 +7978,11 @@
       <c r="E263" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F263" s="1">
+        <v>300.07998700000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>300.23998999999998</v>
       </c>
@@ -7203,8 +8000,11 @@
       <c r="E264" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F264" s="1">
+        <v>293.35000600000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>292.17001299999998</v>
       </c>
@@ -7222,8 +8022,11 @@
       <c r="E265" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F265" s="1">
+        <v>287.69000199999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>299.66000400000001</v>
       </c>
@@ -7241,8 +8044,11 @@
       <c r="E266" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F266" s="1">
+        <v>291.209991</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>303.95001200000002</v>
       </c>
@@ -7260,8 +8066,11 @@
       <c r="E267" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F267" s="1">
+        <v>300.33999599999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>303.95001200000002</v>
       </c>
@@ -7279,8 +8088,11 @@
       <c r="E268" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F268" s="1">
+        <v>294.07998700000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>308.98001099999999</v>
       </c>
@@ -7298,8 +8110,11 @@
       <c r="E269" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F269" s="1">
+        <v>300.92999300000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>307.10000600000001</v>
       </c>
@@ -7317,8 +8132,11 @@
       <c r="E270" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F270" s="1">
+        <v>304.70001200000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>309.5</v>
       </c>
@@ -7336,8 +8154,11 @@
       <c r="E271" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F271" s="1">
+        <v>289.66000400000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>309.27999899999998</v>
       </c>
@@ -7355,8 +8176,11 @@
       <c r="E272" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F272" s="1">
+        <v>299.29998799999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>306.26001000000002</v>
       </c>
@@ -7374,8 +8198,11 @@
       <c r="E273" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F273" s="1">
+        <v>305.72000100000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>288.36999500000002</v>
       </c>
@@ -7393,8 +8220,11 @@
       <c r="E274" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F274" s="1">
+        <v>286.94000199999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273.35000600000001</v>
       </c>
@@ -7412,8 +8242,11 @@
       <c r="E275" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F275" s="1">
+        <v>267.52999899999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>260.32998700000002</v>
       </c>
@@ -7431,8 +8264,11 @@
       <c r="E276" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F276" s="1">
+        <v>252.479996</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>270.959991</v>
       </c>
@@ -7450,8 +8286,11 @@
       <c r="E277" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F277" s="1">
+        <v>266.13000499999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>268.67999300000002</v>
       </c>
@@ -7469,8 +8308,11 @@
       <c r="E278" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F278" s="1">
+        <v>257.77999899999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>304.26998900000001</v>
       </c>
@@ -7488,8 +8330,11 @@
       <c r="E279" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F279" s="1">
+        <v>279.17999300000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>307.58999599999999</v>
       </c>
@@ -7507,8 +8352,11 @@
       <c r="E280" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F280" s="1">
+        <v>304.17999300000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>311.25</v>
       </c>
@@ -7526,8 +8374,11 @@
       <c r="E281" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F281" s="1">
+        <v>301.540009</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>318.82000699999998</v>
       </c>
@@ -7545,8 +8396,11 @@
       <c r="E282" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F282" s="1">
+        <v>309.10000600000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>322.44000199999999</v>
       </c>
@@ -7564,8 +8418,11 @@
       <c r="E283" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F283" s="1">
+        <v>316.52999899999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>316.25</v>
       </c>
@@ -7583,8 +8440,11 @@
       <c r="E284" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F284" s="1">
+        <v>310.54998799999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>320.75</v>
       </c>
@@ -7602,8 +8462,11 @@
       <c r="E285" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F285" s="1">
+        <v>313.55999800000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>327.39999399999999</v>
       </c>
@@ -7621,8 +8484,11 @@
       <c r="E286" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F286" s="1">
+        <v>321.35000600000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>332.85000600000001</v>
       </c>
@@ -7640,8 +8506,11 @@
       <c r="E287" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F287" s="1">
+        <v>325.60000600000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>339.80999800000001</v>
       </c>
@@ -7659,8 +8528,11 @@
       <c r="E288" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F288" s="1">
+        <v>326.63000499999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>347.209991</v>
       </c>
@@ -7678,8 +8550,11 @@
       <c r="E289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F289" s="1">
+        <v>341.83999599999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>347.209991</v>
       </c>
@@ -7697,8 +8572,11 @@
       <c r="E290" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F290" s="1">
+        <v>345.51001000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>328.48998999999998</v>
       </c>
@@ -7716,8 +8594,11 @@
       <c r="E291" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F291" s="1">
+        <v>327.17001299999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>333.29998799999998</v>
       </c>
@@ -7735,8 +8616,11 @@
       <c r="E292" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F292" s="1">
+        <v>329.10000600000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>332.5</v>
       </c>
@@ -7754,8 +8638,11 @@
       <c r="E293" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F293" s="1">
+        <v>332.29998799999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>336.36999500000002</v>
       </c>
@@ -7773,8 +8660,11 @@
       <c r="E294" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F294" s="1">
+        <v>328.20001200000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>337.75</v>
       </c>
@@ -7792,8 +8682,11 @@
       <c r="E295" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F295" s="1">
+        <v>333.35000600000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>335.22000100000002</v>
       </c>
@@ -7811,8 +8704,11 @@
       <c r="E296" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F296" s="1">
+        <v>335.11999500000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>348.67001299999998</v>
       </c>
@@ -7830,8 +8726,11 @@
       <c r="E297" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F297" s="1">
+        <v>330.92999300000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>355.23998999999998</v>
       </c>
@@ -7849,8 +8748,11 @@
       <c r="E298" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F298" s="1">
+        <v>343.05999800000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>359.98998999999998</v>
       </c>
@@ -7868,8 +8770,11 @@
       <c r="E299" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F299" s="1">
+        <v>350.98998999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>359</v>
       </c>
@@ -7887,8 +8792,11 @@
       <c r="E300" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F300" s="1">
+        <v>357.42001299999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>354.98998999999998</v>
       </c>
@@ -7906,8 +8814,11 @@
       <c r="E301" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F301" s="1">
+        <v>352.04998799999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>347.44000199999999</v>
       </c>
@@ -7925,8 +8836,11 @@
       <c r="E302" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F302" s="1">
+        <v>346.17001299999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>339.69000199999999</v>
       </c>
@@ -7944,8 +8858,11 @@
       <c r="E303" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F303" s="1">
+        <v>333.29998799999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>340.83999599999999</v>
       </c>
@@ -7963,8 +8880,11 @@
       <c r="E304" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F304" s="1">
+        <v>334.76998900000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>343.11999500000002</v>
       </c>
@@ -7982,8 +8902,11 @@
       <c r="E305" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F305" s="1">
+        <v>335.48998999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>334.11999500000002</v>
       </c>
@@ -8001,8 +8924,11 @@
       <c r="E306" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F306" s="1">
+        <v>334.07000699999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>326.17001299999998</v>
       </c>
@@ -8020,8 +8946,11 @@
       <c r="E307" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F307" s="1">
+        <v>322.30999800000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>324.19000199999999</v>
       </c>
@@ -8039,8 +8968,11 @@
       <c r="E308" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F308" s="1">
+        <v>323.66000400000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>318.07998700000002</v>
       </c>
@@ -8058,8 +8990,11 @@
       <c r="E309" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F309" s="1">
+        <v>315.73001099999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>320.98001099999999</v>
       </c>
@@ -8077,8 +9012,11 @@
       <c r="E310" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F310" s="1">
+        <v>310.42001299999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>348.61999500000002</v>
       </c>
@@ -8096,8 +9034,11 @@
       <c r="E311" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F311" s="1">
+        <v>315.23001099999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>346</v>
       </c>
@@ -8115,8 +9056,11 @@
       <c r="E312" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F312" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>336.22000100000002</v>
       </c>
@@ -8134,8 +9078,11 @@
       <c r="E313" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F313" s="1">
+        <v>333.97000100000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>344.47000100000002</v>
       </c>
@@ -8153,8 +9100,11 @@
       <c r="E314" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F314" s="1">
+        <v>333.13000499999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>351.95001200000002</v>
       </c>
@@ -8172,8 +9122,11 @@
       <c r="E315" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F315" s="1">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>359.66000400000001</v>
       </c>
@@ -8191,8 +9144,11 @@
       <c r="E316" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F316" s="1">
+        <v>349.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>356.19000199999999</v>
       </c>
@@ -8210,8 +9166,11 @@
       <c r="E317" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F317" s="1">
+        <v>354.30999800000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>348.26998900000001</v>
       </c>
@@ -8229,8 +9188,11 @@
       <c r="E318" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F318" s="1">
+        <v>345.82000699999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>350.85000600000001</v>
       </c>
@@ -8248,8 +9210,11 @@
       <c r="E319" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F319" s="1">
+        <v>349.52999899999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>344</v>
       </c>
@@ -8267,8 +9232,11 @@
       <c r="E320" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F320" s="1">
+        <v>342.85000600000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>349.20001200000002</v>
       </c>
@@ -8286,8 +9254,11 @@
       <c r="E321" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F321" s="1">
+        <v>337.64001500000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>354.75</v>
       </c>
@@ -8305,8 +9276,11 @@
       <c r="E322" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F322" s="1">
+        <v>345.89001500000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>360.5</v>
       </c>
@@ -8324,8 +9298,11 @@
       <c r="E323" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F323" s="1">
+        <v>352.790009</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>357.82998700000002</v>
       </c>
@@ -8343,8 +9320,11 @@
       <c r="E324" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F324" s="1">
+        <v>351.55999800000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>350.58999599999999</v>
       </c>
@@ -8362,8 +9342,11 @@
       <c r="E325" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F325" s="1">
+        <v>350.01998900000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>352.29998799999998</v>
       </c>
@@ -8381,8 +9364,11 @@
       <c r="E326" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F326" s="1">
+        <v>344.57000699999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>349</v>
       </c>
@@ -8400,8 +9386,11 @@
       <c r="E327" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F327" s="1">
+        <v>347.16000400000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>345</v>
       </c>
@@ -8419,8 +9408,11 @@
       <c r="E328" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F328" s="1">
+        <v>340.05999800000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>340.41000400000001</v>
       </c>
@@ -8438,8 +9430,11 @@
       <c r="E329" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F329" s="1">
+        <v>336.22000100000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>344.80999800000001</v>
       </c>
@@ -8457,8 +9452,11 @@
       <c r="E330" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F330" s="1">
+        <v>337.95001200000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>337</v>
       </c>
@@ -8476,8 +9474,11 @@
       <c r="E331" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F331" s="1">
+        <v>334.79998799999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>338.79998799999998</v>
       </c>
@@ -8495,8 +9496,11 @@
       <c r="E332" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F332" s="1">
+        <v>333.69000199999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>337.01998900000001</v>
       </c>
@@ -8514,8 +9518,11 @@
       <c r="E333" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F333" s="1">
+        <v>336.41000400000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>317.23998999999998</v>
       </c>
@@ -8533,8 +9540,11 @@
       <c r="E334" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F334" s="1">
+        <v>316.57998700000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>318.54998799999998</v>
       </c>
@@ -8552,8 +9562,11 @@
       <c r="E335" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F335" s="1">
+        <v>314.61999500000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>325.25</v>
       </c>
@@ -8571,8 +9584,11 @@
       <c r="E336" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F336" s="1">
+        <v>317.25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>322.10998499999999</v>
       </c>
@@ -8590,8 +9606,11 @@
       <c r="E337" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F337" s="1">
+        <v>320.52999899999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>316.41000400000001</v>
       </c>
@@ -8609,8 +9628,11 @@
       <c r="E338" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F338" s="1">
+        <v>311.35000600000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>315.82000699999998</v>
       </c>
@@ -8628,8 +9650,11 @@
       <c r="E339" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F339" s="1">
+        <v>315.35998499999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>317.67999300000002</v>
       </c>
@@ -8647,8 +9672,11 @@
       <c r="E340" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F340" s="1">
+        <v>311.64001500000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>323.94000199999999</v>
       </c>
@@ -8666,8 +9694,11 @@
       <c r="E341" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F341" s="1">
+        <v>317.290009</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>330.92001299999998</v>
       </c>
@@ -8685,8 +9716,11 @@
       <c r="E342" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F342" s="1">
+        <v>325.20001200000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>333.73998999999998</v>
       </c>
@@ -8704,8 +9738,11 @@
       <c r="E343" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F343" s="1">
+        <v>331.66000400000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>333.10000600000001</v>
       </c>
@@ -8723,8 +9760,11 @@
       <c r="E344" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F344" s="1">
+        <v>328.98001099999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>341.48998999999998</v>
       </c>
@@ -8742,8 +9782,11 @@
       <c r="E345" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F345" s="1">
+        <v>331.10000600000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>346.73001099999999</v>
       </c>
@@ -8761,8 +9804,11 @@
       <c r="E346" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F346" s="1">
+        <v>338.86999500000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>343.89999399999999</v>
       </c>
@@ -8780,8 +9826,11 @@
       <c r="E347" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F347" s="1">
+        <v>343.45001200000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347.44000199999999</v>
       </c>
@@ -8799,8 +9848,11 @@
       <c r="E348" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F348" s="1">
+        <v>337.89001500000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>344.22000100000002</v>
       </c>
@@ -8818,8 +9870,11 @@
       <c r="E349" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F349" s="1">
+        <v>339.02999899999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>341.44000199999999</v>
       </c>
@@ -8837,8 +9892,11 @@
       <c r="E350" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F350" s="1">
+        <v>341.02999899999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>329.01001000000002</v>
       </c>
@@ -8856,8 +9914,11 @@
       <c r="E351" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F351" s="1">
+        <v>328.91000400000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>316.98001099999999</v>
       </c>
@@ -8875,8 +9936,11 @@
       <c r="E352" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F352" s="1">
+        <v>315.13000499999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>318.63000499999998</v>
       </c>
@@ -8894,8 +9958,11 @@
       <c r="E353" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F353" s="1">
+        <v>311.23998999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>313.39001500000001</v>
       </c>
@@ -8913,8 +9980,11 @@
       <c r="E354" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F354" s="1">
+        <v>313.26001000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>308</v>
       </c>
@@ -8932,8 +10002,11 @@
       <c r="E355" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F355" s="1">
+        <v>303.70001200000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>308.26998900000001</v>
       </c>
@@ -8951,8 +10024,11 @@
       <c r="E356" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F356" s="1">
+        <v>305.20001200000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>310.32000699999998</v>
       </c>
@@ -8970,8 +10046,11 @@
       <c r="E357" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F357" s="1">
+        <v>306.52999899999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>310.70001200000002</v>
       </c>
@@ -8989,8 +10068,11 @@
       <c r="E358" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F358" s="1">
+        <v>308.85000600000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>318</v>
       </c>
@@ -9008,8 +10090,11 @@
       <c r="E359" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F359" s="1">
+        <v>307.540009</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>320</v>
       </c>
@@ -9027,8 +10112,11 @@
       <c r="E360" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F360" s="1">
+        <v>317.54998799999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>317.33999599999999</v>
       </c>
@@ -9046,8 +10134,11 @@
       <c r="E361" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F361" s="1">
+        <v>316.80999800000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>316.41000400000001</v>
       </c>
@@ -9065,8 +10156,11 @@
       <c r="E362" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F362" s="1">
+        <v>315.54998799999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>317.42001299999998</v>
       </c>
@@ -9084,8 +10178,11 @@
       <c r="E363" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F363" s="1">
+        <v>312.60000600000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>318.23001099999999</v>
       </c>
@@ -9103,8 +10200,11 @@
       <c r="E364" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F364" s="1">
+        <v>317.80999800000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>315.5</v>
       </c>
@@ -9122,8 +10222,11 @@
       <c r="E365" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F365" s="1">
+        <v>308.73998999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>326.67001299999998</v>
       </c>
@@ -9141,8 +10244,11 @@
       <c r="E366" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F366" s="1">
+        <v>315.04998799999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>318.14001500000001</v>
       </c>
@@ -9160,8 +10266,11 @@
       <c r="E367" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F367" s="1">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>312.48998999999998</v>
       </c>
@@ -9179,8 +10288,11 @@
       <c r="E368" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F368" s="1">
+        <v>311.29998799999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>316.35000600000001</v>
       </c>
@@ -9198,8 +10310,11 @@
       <c r="E369" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F369" s="1">
+        <v>308.70001200000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>316.79998799999998</v>
       </c>
@@ -9217,8 +10332,11 @@
       <c r="E370" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F370" s="1">
+        <v>315.39999399999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>308.35998499999999</v>
       </c>
@@ -9236,8 +10354,11 @@
       <c r="E371" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F371" s="1">
+        <v>302.98998999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>304.459991</v>
       </c>
@@ -9255,8 +10376,11 @@
       <c r="E372" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F372" s="1">
+        <v>302.98998999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>306.89001500000001</v>
       </c>
@@ -9274,8 +10398,11 @@
       <c r="E373" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F373" s="1">
+        <v>304.39001500000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>306.5</v>
       </c>
@@ -9293,8 +10420,11 @@
       <c r="E374" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F374" s="1">
+        <v>306.04998799999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>307.5</v>
       </c>
@@ -9312,8 +10442,11 @@
       <c r="E375" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F375" s="1">
+        <v>302.77999899999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>306.25</v>
       </c>
@@ -9331,8 +10464,11 @@
       <c r="E376" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F376" s="1">
+        <v>306.08999599999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>308.69000199999999</v>
       </c>
@@ -9350,8 +10486,11 @@
       <c r="E377" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F377" s="1">
+        <v>299.26001000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>332.60998499999999</v>
       </c>
@@ -9369,8 +10508,11 @@
       <c r="E378" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F378" s="1">
+        <v>321.07998700000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>331.95001200000002</v>
       </c>
@@ -9388,8 +10530,11 @@
       <c r="E379" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F379" s="1">
+        <v>331.52999899999998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>323.77999899999998</v>
       </c>
@@ -9407,8 +10552,11 @@
       <c r="E380" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F380" s="1">
+        <v>320.07998700000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>324.58999599999999</v>
       </c>
@@ -9426,8 +10574,11 @@
       <c r="E381" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F381" s="1">
+        <v>320.86999500000002</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>330.23001099999999</v>
       </c>
@@ -9445,8 +10596,11 @@
       <c r="E382" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F382" s="1">
+        <v>326.17001299999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>337.5</v>
       </c>
@@ -9464,8 +10618,11 @@
       <c r="E383" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F383" s="1">
+        <v>325.83999599999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>342.79998799999998</v>
       </c>
@@ -9483,8 +10640,11 @@
       <c r="E384" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F384" s="1">
+        <v>337.33999599999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>349.95001200000002</v>
       </c>
@@ -9502,8 +10662,11 @@
       <c r="E385" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F385" s="1">
+        <v>337.01998900000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>354.54998799999998</v>
       </c>
@@ -9521,8 +10684,11 @@
       <c r="E386" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F386" s="1">
+        <v>345.10000600000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>357.14999399999999</v>
       </c>
@@ -9540,8 +10706,11 @@
       <c r="E387" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F387" s="1">
+        <v>351.80999800000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>363</v>
       </c>
@@ -9559,8 +10728,11 @@
       <c r="E388" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F388" s="1">
+        <v>359.64999399999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>356.22000100000002</v>
       </c>
@@ -9578,8 +10750,11 @@
       <c r="E389" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F389" s="1">
+        <v>355.75</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>354.48001099999999</v>
       </c>
@@ -9597,8 +10772,11 @@
       <c r="E390" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F390" s="1">
+        <v>350.60000600000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>358.48998999999998</v>
       </c>
@@ -9616,8 +10794,11 @@
       <c r="E391" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F391" s="1">
+        <v>355.57000699999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>359.77999899999998</v>
       </c>
@@ -9635,8 +10816,11 @@
       <c r="E392" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F392" s="1">
+        <v>355.67999300000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>357.60000600000001</v>
       </c>
@@ -9654,8 +10838,11 @@
       <c r="E393" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F393" s="1">
+        <v>354.60000600000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>355.63000499999998</v>
       </c>
@@ -9673,8 +10860,11 @@
       <c r="E394" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F394" s="1">
+        <v>355.58999599999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>351.75</v>
       </c>
@@ -9692,8 +10882,11 @@
       <c r="E395" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F395" s="1">
+        <v>342.94000199999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>360.10000600000001</v>
       </c>
@@ -9711,8 +10904,11 @@
       <c r="E396" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F396" s="1">
+        <v>356.88000499999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>357.44000199999999</v>
       </c>
@@ -9730,8 +10926,11 @@
       <c r="E397" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F397" s="1">
+        <v>355.32998700000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>358.61999500000002</v>
       </c>
@@ -9749,8 +10948,11 @@
       <c r="E398" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F398" s="1">
+        <v>355.01001000000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>348.54998799999998</v>
       </c>
@@ -9768,8 +10970,11 @@
       <c r="E399" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F399" s="1">
+        <v>348.14001500000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>343.70001200000002</v>
       </c>
@@ -9787,8 +10992,11 @@
       <c r="E400" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F400" s="1">
+        <v>341.52999899999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>344.67999300000002</v>
       </c>
@@ -9806,8 +11014,11 @@
       <c r="E401" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F401" s="1">
+        <v>341.10000600000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>342.75</v>
       </c>
@@ -9825,8 +11036,11 @@
       <c r="E402" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F402" s="1">
+        <v>339.60000600000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>351.48998999999998</v>
       </c>
@@ -9844,8 +11058,11 @@
       <c r="E403" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F403" s="1">
+        <v>340.97000100000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>351.23998999999998</v>
       </c>
@@ -9863,8 +11080,11 @@
       <c r="E404" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F404" s="1">
+        <v>345.25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>357.47000100000002</v>
       </c>
@@ -9882,8 +11102,11 @@
       <c r="E405" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F405" s="1">
+        <v>344.98998999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>369.89999399999999</v>
       </c>
@@ -9901,8 +11124,11 @@
       <c r="E406" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F406" s="1">
+        <v>351.08999599999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>376.82998700000002</v>
       </c>
@@ -9920,8 +11146,11 @@
       <c r="E407" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F407" s="1">
+        <v>366.48001099999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>378.25</v>
       </c>
@@ -9939,8 +11168,11 @@
       <c r="E408" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F408" s="1">
+        <v>373.91000400000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>382.39001500000001</v>
       </c>
@@ -9958,8 +11190,11 @@
       <c r="E409" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F409" s="1">
+        <v>375.10000600000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>389.60998499999999</v>
       </c>
@@ -9977,8 +11212,11 @@
       <c r="E410" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F410" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>380</v>
       </c>
@@ -9996,8 +11234,11 @@
       <c r="E411" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F411" s="1">
+        <v>379.80999800000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>377.959991</v>
       </c>
@@ -10015,8 +11256,11 @@
       <c r="E412" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F412" s="1">
+        <v>377.64001500000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>368.07000699999998</v>
       </c>
@@ -10034,8 +11278,11 @@
       <c r="E413" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F413" s="1">
+        <v>366.23001099999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>368.76001000000002</v>
       </c>
@@ -10053,8 +11300,11 @@
       <c r="E414" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F414" s="1">
+        <v>362.75</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>363.709991</v>
       </c>
@@ -10072,8 +11322,11 @@
       <c r="E415" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F415" s="1">
+        <v>363.69000199999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>349.77999899999998</v>
       </c>
@@ -10091,8 +11344,11 @@
       <c r="E416" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F416" s="1">
+        <v>343.39999399999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>352.48001099999999</v>
       </c>
@@ -10110,8 +11366,11 @@
       <c r="E417" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F417" s="1">
+        <v>350.60998499999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>350.98001099999999</v>
       </c>
@@ -10129,8 +11388,11 @@
       <c r="E418" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F418" s="1">
+        <v>344.52999899999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>355.48998999999998</v>
       </c>
@@ -10148,8 +11410,11 @@
       <c r="E419" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F419" s="1">
+        <v>349.58999599999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>357.58999599999999</v>
       </c>
@@ -10167,8 +11432,11 @@
       <c r="E420" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F420" s="1">
+        <v>355.39999399999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>358.44000199999999</v>
       </c>
@@ -10186,8 +11454,11 @@
       <c r="E421" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F421" s="1">
+        <v>355.89999399999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>353.47000100000002</v>
       </c>
@@ -10205,8 +11476,11 @@
       <c r="E422" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F422" s="1">
+        <v>353.17999300000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>349.04998799999998</v>
       </c>
@@ -10224,8 +11498,11 @@
       <c r="E423" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F423" s="1">
+        <v>347.35998499999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>347.35000600000001</v>
       </c>
@@ -10243,8 +11520,11 @@
       <c r="E424" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F424" s="1">
+        <v>345.66000400000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>355.69000199999999</v>
       </c>
@@ -10262,8 +11542,11 @@
       <c r="E425" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F425" s="1">
+        <v>348.04998799999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>356.66000400000001</v>
       </c>
@@ -10281,8 +11564,11 @@
       <c r="E426" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F426" s="1">
+        <v>352.92999300000002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>353.48998999999998</v>
       </c>
@@ -10300,8 +11586,11 @@
       <c r="E427" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F427" s="1">
+        <v>352.76998900000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>342.23998999999998</v>
       </c>
@@ -10319,8 +11608,11 @@
       <c r="E428" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F428" s="1">
+        <v>341.35000600000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>345.82000699999998</v>
       </c>
@@ -10338,8 +11630,11 @@
       <c r="E429" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F429" s="1">
+        <v>337.85998499999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>354</v>
       </c>
@@ -10357,8 +11652,11 @@
       <c r="E430" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F430" s="1">
+        <v>347.459991</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>363.29998799999998</v>
       </c>
@@ -10376,8 +11674,11 @@
       <c r="E431" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F431" s="1">
+        <v>351.92001299999998</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>366.5</v>
       </c>
@@ -10395,8 +11696,11 @@
       <c r="E432" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F432" s="1">
+        <v>362.91000400000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>365.48998999999998</v>
       </c>
@@ -10414,8 +11718,11 @@
       <c r="E433" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F433" s="1">
+        <v>362.32998700000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>367.66000400000001</v>
       </c>
@@ -10433,8 +11740,11 @@
       <c r="E434" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F434" s="1">
+        <v>363.79998799999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>361.26001000000002</v>
       </c>
@@ -10452,8 +11762,11 @@
       <c r="E435" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F435" s="1">
+        <v>357.86999500000002</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>366.64999399999999</v>
       </c>
@@ -10471,8 +11784,11 @@
       <c r="E436" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F436" s="1">
+        <v>355.39999399999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>370</v>
       </c>
@@ -10490,8 +11806,11 @@
       <c r="E437" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F437" s="1">
+        <v>363.52999899999998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>368.57998700000002</v>
       </c>
@@ -10509,8 +11828,11 @@
       <c r="E438" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F438" s="1">
+        <v>365.22000100000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>359.48001099999999</v>
       </c>
@@ -10528,8 +11850,11 @@
       <c r="E439" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F439" s="1">
+        <v>355.17001299999998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>357.26998900000001</v>
       </c>
@@ -10547,8 +11872,11 @@
       <c r="E440" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F440" s="1">
+        <v>356.91000400000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>350</v>
       </c>
@@ -10566,8 +11894,11 @@
       <c r="E441" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F441" s="1">
+        <v>347.08999599999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>327.11999500000002</v>
       </c>
@@ -10585,8 +11916,11 @@
       <c r="E442" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F442" s="1">
+        <v>325.89001500000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>324.45001200000002</v>
       </c>
@@ -10604,8 +11938,11 @@
       <c r="E443" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F443" s="1">
+        <v>319.57000699999998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>341.48998999999998</v>
       </c>
@@ -10623,8 +11960,11 @@
       <c r="E444" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F444" s="1">
+        <v>323.47000100000002</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>339.60000600000001</v>
       </c>
@@ -10642,8 +11982,11 @@
       <c r="E445" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F445" s="1">
+        <v>335.07000699999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>347.5</v>
       </c>
@@ -10661,8 +12004,11 @@
       <c r="E446" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F446" s="1">
+        <v>334.459991</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>345.5</v>
       </c>
@@ -10680,8 +12026,11 @@
       <c r="E447" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F447" s="1">
+        <v>343.85000600000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>345.60000600000001</v>
       </c>
@@ -10699,8 +12048,11 @@
       <c r="E448" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F448" s="1">
+        <v>339.60000600000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>343.39999399999999</v>
       </c>
@@ -10718,8 +12070,11 @@
       <c r="E449" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F449" s="1">
+        <v>342.51998900000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>331.26001000000002</v>
       </c>
@@ -10737,8 +12092,11 @@
       <c r="E450" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F450" s="1">
+        <v>328.39999399999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>330.22000100000002</v>
       </c>
@@ -10756,8 +12114,11 @@
       <c r="E451" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F451" s="1">
+        <v>329.92001299999998</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>331.64999399999999</v>
       </c>
@@ -10775,8 +12136,11 @@
       <c r="E452" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F452" s="1">
+        <v>325.26001000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>329.13000499999998</v>
       </c>
@@ -10794,8 +12158,11 @@
       <c r="E453" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F453" s="1">
+        <v>328.23998999999998</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>327.10000600000001</v>
       </c>
@@ -10813,8 +12180,11 @@
       <c r="E454" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F454" s="1">
+        <v>319.57000699999998</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>328.42001299999998</v>
       </c>
@@ -10832,8 +12202,11 @@
       <c r="E455" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F455" s="1">
+        <v>327.77999899999998</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>331.60000600000001</v>
       </c>
@@ -10851,8 +12224,11 @@
       <c r="E456" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F456" s="1">
+        <v>323.41000400000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>333.10000600000001</v>
       </c>
@@ -10870,8 +12246,11 @@
       <c r="E457" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F457" s="1">
+        <v>329.51998900000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>327.27999899999998</v>
       </c>
@@ -10889,8 +12268,11 @@
       <c r="E458" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F458" s="1">
+        <v>327.22000100000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>317.94000199999999</v>
       </c>
@@ -10908,8 +12290,11 @@
       <c r="E459" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F459" s="1">
+        <v>316.04998799999998</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>317</v>
       </c>
@@ -10927,8 +12312,11 @@
       <c r="E460" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F460" s="1">
+        <v>313.22000100000002</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>320.790009</v>
       </c>
@@ -10946,8 +12334,11 @@
       <c r="E461" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F461" s="1">
+        <v>308.82998700000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>347.23998999999998</v>
       </c>
@@ -10965,8 +12356,11 @@
       <c r="E462" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F462" s="1">
+        <v>327.08999599999999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>371.35000600000001</v>
       </c>
@@ -10984,8 +12378,11 @@
       <c r="E463" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F463" s="1">
+        <v>352.61999500000002</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>366.76998900000001</v>
       </c>
@@ -11003,8 +12400,11 @@
       <c r="E464" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F464" s="1">
+        <v>361.60998499999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>371</v>
       </c>
@@ -11022,8 +12422,11 @@
       <c r="E465" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F465" s="1">
+        <v>360.75</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>371.73998999999998</v>
       </c>
@@ -11041,8 +12444,11 @@
       <c r="E466" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F466" s="1">
+        <v>371.23998999999998</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>376.39999399999999</v>
       </c>
@@ -11060,8 +12466,11 @@
       <c r="E467" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F467" s="1">
+        <v>362.36999500000002</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>386.95001200000002</v>
       </c>
@@ -11079,8 +12488,11 @@
       <c r="E468" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F468" s="1">
+        <v>377.48998999999998</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>386.98998999999998</v>
       </c>
@@ -11098,8 +12510,11 @@
       <c r="E469" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F469" s="1">
+        <v>383.45001200000002</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>385</v>
       </c>
@@ -11117,8 +12532,11 @@
       <c r="E470" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F470" s="1">
+        <v>382.60998499999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>376.98998999999998</v>
       </c>
@@ -11136,8 +12554,11 @@
       <c r="E471" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F471" s="1">
+        <v>376.39999399999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>378.88000499999998</v>
       </c>
@@ -11155,8 +12576,11 @@
       <c r="E472" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F472" s="1">
+        <v>372.23998999999998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>376.70001200000002</v>
       </c>
@@ -11174,8 +12598,11 @@
       <c r="E473" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F473" s="1">
+        <v>369.79998799999998</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>378.01001000000002</v>
       </c>
@@ -11193,8 +12620,11 @@
       <c r="E474" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F474" s="1">
+        <v>371.39999399999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>375.459991</v>
       </c>
@@ -11212,8 +12642,11 @@
       <c r="E475" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F475" s="1">
+        <v>375.33999599999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>384.25</v>
       </c>
@@ -11231,8 +12664,11 @@
       <c r="E476" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F476" s="1">
+        <v>380.66000400000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>376</v>
       </c>
@@ -11250,8 +12686,11 @@
       <c r="E477" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F477" s="1">
+        <v>375.95001200000002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>364.5</v>
       </c>
@@ -11269,8 +12708,11 @@
       <c r="E478" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F478" s="1">
+        <v>359.01001000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>376.86999500000002</v>
       </c>
@@ -11288,8 +12730,11 @@
       <c r="E479" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F479" s="1">
+        <v>357.32000699999998</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>371.89999399999999</v>
       </c>
@@ -11307,8 +12752,11 @@
       <c r="E480" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F480" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>360.5</v>
       </c>
@@ -11326,8 +12774,11 @@
       <c r="E481" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F481" s="1">
+        <v>359.64999399999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>359.48998999999998</v>
       </c>
@@ -11345,8 +12796,11 @@
       <c r="E482" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F482" s="1">
+        <v>352.85000600000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>348.44000199999999</v>
       </c>
@@ -11364,8 +12818,11 @@
       <c r="E483" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F483" s="1">
+        <v>347.32000699999998</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>342.88000499999998</v>
       </c>
@@ -11383,8 +12840,11 @@
       <c r="E484" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F484" s="1">
+        <v>339.85000600000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>344.88000499999998</v>
       </c>
@@ -11402,8 +12862,11 @@
       <c r="E485" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F485" s="1">
+        <v>340.36999500000002</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>342.89001500000001</v>
       </c>
@@ -11421,8 +12884,11 @@
       <c r="E486" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F486" s="1">
+        <v>341.01001000000002</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>336.27999899999998</v>
       </c>
@@ -11440,8 +12906,11 @@
       <c r="E487" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F487" s="1">
+        <v>335.10000600000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>325.48998999999998</v>
       </c>
@@ -11459,8 +12928,11 @@
       <c r="E488" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F488" s="1">
+        <v>325.14001500000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>316.97000100000002</v>
       </c>
@@ -11478,8 +12950,11 @@
       <c r="E489" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F489" s="1">
+        <v>316.82998700000002</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>311</v>
       </c>
@@ -11497,8 +12972,11 @@
       <c r="E490" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F490" s="1">
+        <v>310.22000100000002</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>310.73001099999999</v>
       </c>
@@ -11516,8 +12994,11 @@
       <c r="E491" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F491" s="1">
+        <v>303.85998499999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>314.36999500000002</v>
       </c>
@@ -11535,8 +13016,11 @@
       <c r="E492" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F492" s="1">
+        <v>310.35000600000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>316.5</v>
       </c>
@@ -11554,8 +13038,11 @@
       <c r="E493" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F493" s="1">
+        <v>310.82998700000002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>313.94000199999999</v>
       </c>
@@ -11573,8 +13060,11 @@
       <c r="E494" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F494" s="1">
+        <v>313.05999800000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>314.63000499999998</v>
       </c>
@@ -11592,8 +13082,11 @@
       <c r="E495" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F495" s="1">
+        <v>306.10998499999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>320.05999800000001</v>
       </c>
@@ -11611,8 +13104,11 @@
       <c r="E496" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F496" s="1">
+        <v>317.01001000000002</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>320.20001200000002</v>
       </c>
@@ -11630,8 +13126,11 @@
       <c r="E497" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F497" s="1">
+        <v>315.88000499999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>327</v>
       </c>
@@ -11649,8 +13148,11 @@
       <c r="E498" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F498" s="1">
+        <v>324.80999800000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>326</v>
       </c>
@@ -11668,8 +13170,11 @@
       <c r="E499" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F499" s="1">
+        <v>323.10000600000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>325.5</v>
       </c>
@@ -11687,8 +13192,11 @@
       <c r="E500" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F500" s="1">
+        <v>325.22000100000002</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>321.98998999999998</v>
       </c>
@@ -11706,8 +13214,11 @@
       <c r="E501" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F501" s="1">
+        <v>321.26001000000002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>313.790009</v>
       </c>
@@ -11725,8 +13236,11 @@
       <c r="E502" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F502" s="1">
+        <v>307.19000199999999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>308.54998799999998</v>
       </c>
@@ -11744,8 +13258,11 @@
       <c r="E503" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F503" s="1">
+        <v>308.35000600000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>307.76998900000001</v>
       </c>
@@ -11763,8 +13280,11 @@
       <c r="E504" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F504" s="1">
+        <v>295.459991</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>321.52999899999998</v>
       </c>
@@ -11782,8 +13302,11 @@
       <c r="E505" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F505" s="1">
+        <v>311.01998900000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>327.66000400000001</v>
       </c>
@@ -11801,8 +13324,11 @@
       <c r="E506" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F506" s="1">
+        <v>318.89001500000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>327.25</v>
       </c>
@@ -11820,8 +13346,11 @@
       <c r="E507" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F507" s="1">
+        <v>322.82998700000002</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>314.79998799999998</v>
       </c>
@@ -11839,8 +13368,11 @@
       <c r="E508" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F508" s="1">
+        <v>314.07000699999998</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>313.08999599999999</v>
       </c>
@@ -11858,8 +13390,11 @@
       <c r="E509" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F509" s="1">
+        <v>308.63000499999998</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>314.5</v>
       </c>
@@ -11877,8 +13412,11 @@
       <c r="E510" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F510" s="1">
+        <v>310.17001299999998</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>313.98001099999999</v>
       </c>
@@ -11896,8 +13434,11 @@
       <c r="E511" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F511" s="1">
+        <v>313.790009</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>310.54998799999998</v>
       </c>
@@ -11915,8 +13456,11 @@
       <c r="E512" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F512" s="1">
+        <v>308.02999899999998</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>306.39999399999999</v>
       </c>
@@ -11934,8 +13478,11 @@
       <c r="E513" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F513" s="1">
+        <v>305.60000600000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>309.14999399999999</v>
       </c>
@@ -11953,8 +13500,11 @@
       <c r="E514" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F514" s="1">
+        <v>302.51001000000002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>306.61999500000002</v>
       </c>
@@ -11972,8 +13522,11 @@
       <c r="E515" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F515" s="1">
+        <v>305.51998900000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>300.83999599999999</v>
       </c>
@@ -11991,8 +13544,11 @@
       <c r="E516" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F516" s="1">
+        <v>300.25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>304</v>
       </c>
@@ -12010,8 +13566,11 @@
       <c r="E517" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F517" s="1">
+        <v>301.44000199999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>307.39001500000001</v>
       </c>
@@ -12029,8 +13588,11 @@
       <c r="E518" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F518" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>308.45001200000002</v>
       </c>
@@ -12048,8 +13610,11 @@
       <c r="E519" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F519" s="1">
+        <v>296.83999599999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>313.47000100000002</v>
       </c>
@@ -12067,8 +13632,11 @@
       <c r="E520" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F520" s="1">
+        <v>308.709991</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>313.73001099999999</v>
       </c>
@@ -12086,8 +13654,11 @@
       <c r="E521" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F521" s="1">
+        <v>312.39001500000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>302.69000199999999</v>
       </c>
@@ -12105,8 +13676,11 @@
       <c r="E522" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F522" s="1">
+        <v>302.540009</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>301.94000199999999</v>
       </c>
@@ -12124,8 +13698,11 @@
       <c r="E523" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F523" s="1">
+        <v>298.70001200000002</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>304.88000499999998</v>
       </c>
@@ -12143,8 +13720,11 @@
       <c r="E524" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F524" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>304.80999800000001</v>
       </c>
@@ -12162,8 +13742,11 @@
       <c r="E525" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F525" s="1">
+        <v>303.70001200000002</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>299</v>
       </c>
@@ -12181,8 +13764,11 @@
       <c r="E526" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F526" s="1">
+        <v>298.51998900000001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>279.67999300000002</v>
       </c>
@@ -12200,8 +13786,11 @@
       <c r="E527" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F527" s="1">
+        <v>278.29998799999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>282</v>
       </c>
@@ -12219,8 +13808,11 @@
       <c r="E528" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F528" s="1">
+        <v>277.92001299999998</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>279.60000600000001</v>
       </c>
@@ -12238,8 +13830,11 @@
       <c r="E529" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F529" s="1">
+        <v>277.38000499999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>280.67999300000002</v>
       </c>
@@ -12257,8 +13852,11 @@
       <c r="E530" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F530" s="1">
+        <v>277.45001200000002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>270.57000699999998</v>
       </c>
@@ -12276,8 +13874,11 @@
       <c r="E531" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F531" s="1">
+        <v>270.22000100000002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>263.89001500000001</v>
       </c>
@@ -12295,8 +13896,11 @@
       <c r="E532" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F532" s="1">
+        <v>263.16000400000001</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>257.67001299999998</v>
       </c>
@@ -12314,8 +13918,11 @@
       <c r="E533" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F533" s="1">
+        <v>254.779999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>255.070007</v>
       </c>
@@ -12333,8 +13940,11 @@
       <c r="E534" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F534" s="1">
+        <v>255.009995</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>264.79998799999998</v>
       </c>
@@ -12352,8 +13962,11 @@
       <c r="E535" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F535" s="1">
+        <v>250.679993</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>264.54998799999998</v>
       </c>
@@ -12371,8 +13984,11 @@
       <c r="E536" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F536" s="1">
+        <v>261.92001299999998</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>265.32998700000002</v>
       </c>
@@ -12390,8 +14006,11 @@
       <c r="E537" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F537" s="1">
+        <v>261.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>265.75</v>
       </c>
@@ -12409,8 +14028,11 @@
       <c r="E538" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F538" s="1">
+        <v>262.04998799999998</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>261</v>
       </c>
@@ -12428,8 +14050,11 @@
       <c r="E539" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F539" s="1">
+        <v>255.729996</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>258.11999500000002</v>
       </c>
@@ -12447,8 +14072,11 @@
       <c r="E540" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F540" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>246.85000600000001</v>
       </c>
@@ -12466,8 +14094,11 @@
       <c r="E541" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F541" s="1">
+        <v>246.16999799999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>246.5</v>
       </c>
@@ -12485,8 +14116,11 @@
       <c r="E542" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F542" s="1">
+        <v>243.69000199999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>248.66000399999999</v>
       </c>
@@ -12504,8 +14138,11 @@
       <c r="E543" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F543" s="1">
+        <v>244.89999399999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>250.070007</v>
       </c>
@@ -12523,8 +14160,11 @@
       <c r="E544" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F544" s="1">
+        <v>246.86999499999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>253.88999899999999</v>
       </c>
@@ -12542,8 +14182,11 @@
       <c r="E545" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F545" s="1">
+        <v>248.58999600000001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>251.699997</v>
       </c>
@@ -12561,8 +14204,11 @@
       <c r="E546" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F546" s="1">
+        <v>251.21000699999999</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>251.89999399999999</v>
       </c>
@@ -12580,8 +14226,11 @@
       <c r="E547" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F547" s="1">
+        <v>251.570007</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>253.279999</v>
       </c>
@@ -12599,8 +14248,11 @@
       <c r="E548" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F548" s="1">
+        <v>250.479996</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>254.85000600000001</v>
       </c>
@@ -12618,8 +14270,11 @@
       <c r="E549" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F549" s="1">
+        <v>250.020004</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>251</v>
       </c>
@@ -12637,8 +14292,11 @@
       <c r="E550" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F550" s="1">
+        <v>249.990005</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>248.36000100000001</v>
       </c>
@@ -12656,8 +14314,11 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F551" s="1">
+        <v>246.229996</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>258.25</v>
       </c>
@@ -12675,8 +14336,11 @@
       <c r="E552" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F552" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>264.66000400000001</v>
       </c>
@@ -12694,8 +14358,11 @@
       <c r="E553" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F553" s="1">
+        <v>255.990005</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>283.45001200000002</v>
       </c>
@@ -12713,8 +14380,11 @@
       <c r="E554" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F554" s="1">
+        <v>273.51001000000002</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>281.39999399999999</v>
       </c>
@@ -12732,8 +14402,11 @@
       <c r="E555" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F555" s="1">
+        <v>277.39001500000001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>272.89001500000001</v>
       </c>
@@ -12751,8 +14424,11 @@
       <c r="E556" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F556" s="1">
+        <v>272.23001099999999</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>280</v>
       </c>
@@ -12770,8 +14446,11 @@
       <c r="E557" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F557" s="1">
+        <v>268.95001200000002</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>282.23998999999998</v>
       </c>
@@ -12789,8 +14468,11 @@
       <c r="E558" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F558" s="1">
+        <v>279.76001000000002</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>287.39001500000001</v>
       </c>
@@ -12808,8 +14490,11 @@
       <c r="E559" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F559" s="1">
+        <v>280.98001099999999</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>280.790009</v>
       </c>
@@ -12827,8 +14512,11 @@
       <c r="E560" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F560" s="1">
+        <v>280.60000600000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>270.95001200000002</v>
       </c>
@@ -12846,8 +14534,11 @@
       <c r="E561" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F561" s="1">
+        <v>269.23001099999999</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>271.17999300000002</v>
       </c>
@@ -12865,8 +14556,11 @@
       <c r="E562" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F562" s="1">
+        <v>269.20001200000002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>263.35998499999999</v>
       </c>
@@ -12884,8 +14578,11 @@
       <c r="E563" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F563" s="1">
+        <v>262.07998700000002</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>260</v>
       </c>
@@ -12903,8 +14600,11 @@
       <c r="E564" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F564" s="1">
+        <v>257.48001099999999</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>257.82000699999998</v>
       </c>
@@ -12922,8 +14622,11 @@
       <c r="E565" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F565" s="1">
+        <v>257.76998900000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>252.179993</v>
       </c>
@@ -12941,8 +14644,11 @@
       <c r="E566" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F566" s="1">
+        <v>251.33000200000001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>252.41999799999999</v>
       </c>
@@ -12960,8 +14666,11 @@
       <c r="E567" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F567" s="1">
+        <v>251.550003</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>253.199997</v>
       </c>
@@ -12979,8 +14688,11 @@
       <c r="E568" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F568" s="1">
+        <v>249.240005</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>255.88999899999999</v>
       </c>
@@ -12998,8 +14710,11 @@
       <c r="E569" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F569" s="1">
+        <v>251.929993</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>255.28999300000001</v>
       </c>
@@ -13017,8 +14732,11 @@
       <c r="E570" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F570" s="1">
+        <v>250.63000500000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>253</v>
       </c>
@@ -13036,8 +14754,11 @@
       <c r="E571" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F571" s="1">
+        <v>252.949997</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>255.740005</v>
       </c>
@@ -13055,8 +14776,11 @@
       <c r="E572" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F572" s="1">
+        <v>252.509995</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>258.459991</v>
       </c>
@@ -13074,8 +14798,11 @@
       <c r="E573" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F573" s="1">
+        <v>254.470001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>254.800003</v>
       </c>
@@ -13093,8 +14820,11 @@
       <c r="E574" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F574" s="1">
+        <v>254.61000100000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>250.88999899999999</v>
       </c>
@@ -13112,8 +14842,11 @@
       <c r="E575" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F575" s="1">
+        <v>248.91999799999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>246</v>
       </c>
@@ -13131,8 +14864,11 @@
       <c r="E576" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F576" s="1">
+        <v>244.729996</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>248.679993</v>
       </c>
@@ -13150,8 +14886,11 @@
       <c r="E577" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F577" s="1">
+        <v>243.759995</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>239.71000699999999</v>
       </c>
@@ -13169,8 +14908,11 @@
       <c r="E578" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F578" s="1">
+        <v>238.36000100000001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>239.96000699999999</v>
       </c>
@@ -13188,8 +14930,11 @@
       <c r="E579" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F579" s="1">
+        <v>235.58000200000001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>237.85000600000001</v>
       </c>
@@ -13207,8 +14952,11 @@
       <c r="E580" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F580" s="1">
+        <v>237.75</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>230.699997</v>
       </c>
@@ -13226,8 +14974,11 @@
       <c r="E581" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F581" s="1">
+        <v>229.58999600000001</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>229.979996</v>
       </c>
@@ -13245,8 +14996,11 @@
       <c r="E582" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F582" s="1">
+        <v>229.729996</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>232</v>
       </c>
@@ -13264,8 +15018,11 @@
       <c r="E583" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F583" s="1">
+        <v>229.86999499999999</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>231.91999799999999</v>
       </c>
@@ -13283,8 +15040,11 @@
       <c r="E584" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F584" s="1">
+        <v>231.279999</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>230.30999800000001</v>
       </c>
@@ -13302,8 +15062,11 @@
       <c r="E585" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F585" s="1">
+        <v>229.009995</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>227.479996</v>
       </c>
@@ -13321,8 +15084,11 @@
       <c r="E586" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F586" s="1">
+        <v>226.75</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>228</v>
       </c>
@@ -13340,8 +15106,11 @@
       <c r="E587" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F587" s="1">
+        <v>226.990005</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>220.33000200000001</v>
       </c>
@@ -13358,6 +15127,9 @@
       </c>
       <c r="E588" t="s">
         <v>589</v>
+      </c>
+      <c r="F588" s="1">
+        <v>216.990005</v>
       </c>
     </row>
   </sheetData>
@@ -13374,7 +15146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
